--- a/karman_common/StandardAtmosphere.xlsx
+++ b/karman_common/StandardAtmosphere.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projects\Project_Karman\KarmanSims\karman_common\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27720" windowHeight="22220" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27720" windowHeight="22215" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -51,9 +56,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -81,14 +94,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -417,23 +439,23 @@
   <dimension ref="A1:I863"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B168" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B116" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A175" sqref="A175:XFD175"/>
+      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="12.1640625" customWidth="1"/>
+    <col min="2" max="3" width="12.125" customWidth="1"/>
     <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -462,7 +484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -494,7 +516,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>100</v>
       </c>
@@ -526,7 +548,7 @@
         <v>99.043265306122436</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>200</v>
       </c>
@@ -558,7 +580,7 @@
         <v>98.093877551020412</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>300</v>
       </c>
@@ -590,7 +612,7 @@
         <v>97.151836734693873</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>400</v>
       </c>
@@ -622,7 +644,7 @@
         <v>96.215510204081625</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>500</v>
       </c>
@@ -654,7 +676,7 @@
         <v>95.287346938775514</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>600</v>
       </c>
@@ -686,7 +708,7 @@
         <v>94.365714285714276</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>700</v>
       </c>
@@ -718,7 +740,7 @@
         <v>93.450612244897954</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>800</v>
       </c>
@@ -750,7 +772,7 @@
         <v>92.542040816326519</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>900</v>
       </c>
@@ -782,7 +804,7 @@
         <v>91.640816326530611</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1000</v>
       </c>
@@ -814,7 +836,7 @@
         <v>90.746122448979577</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1100</v>
       </c>
@@ -846,7 +868,7 @@
         <v>89.858775510204083</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1200</v>
       </c>
@@ -878,7 +900,7 @@
         <v>88.977142857142852</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1300</v>
       </c>
@@ -910,7 +932,7 @@
         <v>88.102040816326536</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1400</v>
       </c>
@@ -942,7 +964,7 @@
         <v>87.234285714285704</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1500</v>
       </c>
@@ -974,7 +996,7 @@
         <v>86.373061224489803</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1600</v>
       </c>
@@ -1006,7 +1028,7 @@
         <v>85.517551020408149</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1700</v>
       </c>
@@ -1038,7 +1060,7 @@
         <v>84.669387755102022</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1800</v>
       </c>
@@ -1070,7 +1092,7 @@
         <v>83.8269387755102</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1900</v>
       </c>
@@ -1102,7 +1124,7 @@
         <v>82.991836734693877</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2000</v>
       </c>
@@ -1134,7 +1156,7 @@
         <v>82.162448979591844</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2100</v>
       </c>
@@ -1166,7 +1188,7 @@
         <v>81.339591836734698</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2200</v>
       </c>
@@ -1198,7 +1220,7 @@
         <v>80.523020408163262</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2300</v>
       </c>
@@ -1230,7 +1252,7 @@
         <v>79.71273469387755</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2400</v>
       </c>
@@ -1262,7 +1284,7 @@
         <v>78.908734693877548</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2500</v>
       </c>
@@ -1294,7 +1316,7 @@
         <v>78.110938775510192</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2600</v>
       </c>
@@ -1326,7 +1348,7 @@
         <v>77.319346938775496</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2700</v>
       </c>
@@ -1358,7 +1380,7 @@
         <v>76.533877551020396</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2800</v>
       </c>
@@ -1390,7 +1412,7 @@
         <v>75.754530612244892</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2900</v>
       </c>
@@ -1422,7 +1444,7 @@
         <v>74.98122448979592</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3000</v>
       </c>
@@ -1454,7 +1476,7 @@
         <v>74.214040816326516</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3100</v>
       </c>
@@ -1486,7 +1508,7 @@
         <v>73.452897959183673</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3200</v>
       </c>
@@ -1518,7 +1540,7 @@
         <v>72.69763265306122</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3300</v>
       </c>
@@ -1550,7 +1572,7 @@
         <v>71.948408163265313</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3400</v>
       </c>
@@ -1582,7 +1604,7 @@
         <v>71.205061224489782</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3500</v>
       </c>
@@ -1614,7 +1636,7 @@
         <v>70.467673469387748</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3600</v>
       </c>
@@ -1646,7 +1668,7 @@
         <v>69.736081632653054</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3700</v>
       </c>
@@ -1678,7 +1700,7 @@
         <v>69.010367346938779</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3800</v>
       </c>
@@ -1710,7 +1732,7 @@
         <v>68.29036734693878</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3900</v>
       </c>
@@ -1742,7 +1764,7 @@
         <v>67.576163265306121</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>4000</v>
       </c>
@@ -1774,7 +1796,7 @@
         <v>66.867673469387739</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>4100</v>
       </c>
@@ -1806,7 +1828,7 @@
         <v>66.164897959183662</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>4200</v>
       </c>
@@ -1838,7 +1860,7 @@
         <v>65.467836734693876</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4300</v>
       </c>
@@ -1870,7 +1892,7 @@
         <v>64.776326530612252</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4400</v>
       </c>
@@ -1902,7 +1924,7 @@
         <v>64.090448979591827</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>4500</v>
       </c>
@@ -1934,7 +1956,7 @@
         <v>63.410204081632649</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>4600</v>
       </c>
@@ -1966,7 +1988,7 @@
         <v>62.735428571428564</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4700</v>
       </c>
@@ -1998,7 +2020,7 @@
         <v>62.066122448979591</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>4800</v>
       </c>
@@ -2030,7 +2052,7 @@
         <v>61.402367346938782</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4900</v>
       </c>
@@ -2062,7 +2084,7 @@
         <v>60.744</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>5000</v>
       </c>
@@ -2094,7 +2116,7 @@
         <v>60.091102040816324</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>5100</v>
       </c>
@@ -2126,7 +2148,7 @@
         <v>59.443510204081626</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>5200</v>
       </c>
@@ -2158,7 +2180,7 @@
         <v>58.801387755102027</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>5300</v>
       </c>
@@ -2190,7 +2212,7 @@
         <v>58.164489795918364</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>5400</v>
       </c>
@@ -2222,7 +2244,7 @@
         <v>57.532897959183671</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>5500</v>
       </c>
@@ -2254,7 +2276,7 @@
         <v>56.906612244897957</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>5600</v>
       </c>
@@ -2286,7 +2308,7 @@
         <v>56.285469387755107</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>5700</v>
       </c>
@@ -2318,7 +2340,7 @@
         <v>55.669632653061221</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>5800</v>
       </c>
@@ -2350,7 +2372,7 @@
         <v>55.058857142857143</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>5900</v>
       </c>
@@ -2382,7 +2404,7 @@
         <v>54.453306122448971</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>6000</v>
       </c>
@@ -2414,7 +2436,7 @@
         <v>53.852816326530608</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>6100</v>
       </c>
@@ -2446,7 +2468,7 @@
         <v>53.257469387755094</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>6200</v>
       </c>
@@ -2478,7 +2500,7 @@
         <v>52.667102040816317</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>6300</v>
       </c>
@@ -2510,7 +2532,7 @@
         <v>52.081795918367334</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>6400</v>
       </c>
@@ -2542,7 +2564,7 @@
         <v>51.501387755102037</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>6500</v>
       </c>
@@ -2574,7 +2596,7 @@
         <v>50.92604081632652</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>6600</v>
       </c>
@@ -2606,7 +2628,7 @@
         <v>50.355591836734689</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>6700</v>
       </c>
@@ -2638,7 +2660,7 @@
         <v>49.790040816326531</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>6800</v>
       </c>
@@ -2670,7 +2692,7 @@
         <v>49.229387755102039</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>6900</v>
       </c>
@@ -2702,7 +2724,7 @@
         <v>48.673551020408155</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>7000</v>
       </c>
@@ -2734,7 +2756,7 @@
         <v>48.122530612244901</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>7100</v>
       </c>
@@ -2766,7 +2788,7 @@
         <v>47.576326530612242</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>7200</v>
       </c>
@@ -2798,7 +2820,7 @@
         <v>47.034857142857142</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>7300</v>
       </c>
@@ -2830,7 +2852,7 @@
         <v>46.498122448979593</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>7400</v>
       </c>
@@ -2862,7 +2884,7 @@
         <v>45.966040816326533</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>7500</v>
       </c>
@@ -2894,7 +2916,7 @@
         <v>45.438693877551017</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>7600</v>
       </c>
@@ -2926,7 +2948,7 @@
         <v>44.91591836734694</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>7700</v>
       </c>
@@ -2958,7 +2980,7 @@
         <v>44.397795918367351</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>7800</v>
       </c>
@@ -2990,7 +3012,7 @@
         <v>43.884244897959178</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>7900</v>
       </c>
@@ -3022,7 +3044,7 @@
         <v>43.375265306122444</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>8000</v>
       </c>
@@ -3054,7 +3076,7 @@
         <v>42.87085714285714</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>8100</v>
       </c>
@@ -3086,7 +3108,7 @@
         <v>42.37085714285714</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>8200</v>
       </c>
@@ -3118,7 +3140,7 @@
         <v>41.875346938775508</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>8300</v>
       </c>
@@ -3150,7 +3172,7 @@
         <v>41.384326530612242</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>8400</v>
       </c>
@@ -3182,7 +3204,7 @@
         <v>40.897714285714287</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>8500</v>
       </c>
@@ -3214,7 +3236,7 @@
         <v>40.415510204081627</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>8600</v>
       </c>
@@ -3246,7 +3268,7 @@
         <v>39.937632653061222</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>8700</v>
       </c>
@@ -3278,7 +3300,7 @@
         <v>39.464081632653055</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>8800</v>
       </c>
@@ -3310,7 +3332,7 @@
         <v>38.994857142857136</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>8900</v>
       </c>
@@ -3342,7 +3364,7 @@
         <v>38.529959183673469</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>9000</v>
       </c>
@@ -3374,7 +3396,7 @@
         <v>38.069224489795914</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>9100</v>
       </c>
@@ -3406,7 +3428,7 @@
         <v>37.612734693877549</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>9200</v>
       </c>
@@ -3438,7 +3460,7 @@
         <v>37.160489795918366</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>9300</v>
       </c>
@@ -3470,7 +3492,7 @@
         <v>36.712408163265302</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>9400</v>
       </c>
@@ -3502,7 +3524,7 @@
         <v>36.268489795918363</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>9500</v>
       </c>
@@ -3534,7 +3556,7 @@
         <v>35.828653061224486</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>9600</v>
       </c>
@@ -3566,7 +3588,7 @@
         <v>35.392897959183664</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>9700</v>
       </c>
@@ -3598,7 +3620,7 @@
         <v>34.961224489795917</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>9800</v>
       </c>
@@ -3630,7 +3652,7 @@
         <v>34.533551020408169</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>9900</v>
       </c>
@@ -3662,7 +3684,7 @@
         <v>34.109959183673467</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>10000</v>
       </c>
@@ -3694,7 +3716,7 @@
         <v>33.690367346938771</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>10100</v>
       </c>
@@ -3726,7 +3748,7 @@
         <v>33.274693877551023</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>10200</v>
       </c>
@@ -3758,7 +3780,7 @@
         <v>32.862938775510202</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>10300</v>
       </c>
@@ -3790,7 +3812,7 @@
         <v>32.455102040816328</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>10400</v>
       </c>
@@ -3822,7 +3844,7 @@
         <v>32.051183673469389</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>10500</v>
       </c>
@@ -3854,7 +3876,7 @@
         <v>31.651020408163262</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>10600</v>
       </c>
@@ -3886,7 +3908,7 @@
         <v>31.25477551020408</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>10700</v>
       </c>
@@ -3918,7 +3940,7 @@
         <v>30.862367346938775</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>10800</v>
       </c>
@@ -3950,7 +3972,7 @@
         <v>30.47371428571428</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>10900</v>
       </c>
@@ -3982,7 +4004,7 @@
         <v>30.088816326530608</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>11000</v>
       </c>
@@ -4014,7 +4036,7 @@
         <v>29.707591836734693</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>11100</v>
       </c>
@@ -4046,7 +4068,7 @@
         <v>29.242775510204076</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>11200</v>
       </c>
@@ -4078,7 +4100,7 @@
         <v>28.785306122448979</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>11300</v>
       </c>
@@ -4110,7 +4132,7 @@
         <v>28.334938775510199</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>11400</v>
       </c>
@@ -4142,7 +4164,7 @@
         <v>27.891673469387751</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>11500</v>
       </c>
@@ -4174,7 +4196,7 @@
         <v>27.455265306122445</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>11600</v>
       </c>
@@ -4206,7 +4228,7 @@
         <v>27.025714285714287</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>11700</v>
       </c>
@@ -4238,7 +4260,7 @@
         <v>26.602938775510204</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>11800</v>
       </c>
@@ -4270,7 +4292,7 @@
         <v>26.186693877551015</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>11900</v>
       </c>
@@ -4302,7 +4324,7 @@
         <v>25.776979591836735</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>12000</v>
       </c>
@@ -4334,7 +4356,7 @@
         <v>25.373714285714282</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>12100</v>
       </c>
@@ -4366,39 +4388,39 @@
         <v>24.976734693877546</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
-      <c r="A124">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
         <v>12200</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="1">
         <f t="shared" si="3"/>
         <v>40026.248</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="1">
         <f t="shared" si="4"/>
         <v>7.5807287878787877</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="1">
         <v>216.65</v>
       </c>
-      <c r="E124">
+      <c r="E124" s="1">
         <v>18730.3</v>
       </c>
-      <c r="F124">
+      <c r="F124" s="1">
         <v>0.301178</v>
       </c>
-      <c r="G124">
+      <c r="G124" s="1">
         <v>295.07</v>
       </c>
-      <c r="H124">
+      <c r="H124" s="1">
         <v>1.4322600000000001E-5</v>
       </c>
-      <c r="I124">
+      <c r="I124" s="1">
         <f t="shared" si="5"/>
         <v>24.585959183673467</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>12300</v>
       </c>
@@ -4430,7 +4452,7 @@
         <v>24.20130612244898</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>12400</v>
       </c>
@@ -4462,7 +4484,7 @@
         <v>23.822693877551014</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>12500</v>
       </c>
@@ -4494,7 +4516,7 @@
         <v>23.449959183673467</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>12600</v>
       </c>
@@ -4526,7 +4548,7 @@
         <v>23.083102040816325</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>12700</v>
       </c>
@@ -4558,7 +4580,7 @@
         <v>22.721959183673466</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>12800</v>
       </c>
@@ -4590,7 +4612,7 @@
         <v>22.366448979591834</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>12900</v>
       </c>
@@ -4622,7 +4644,7 @@
         <v>22.016571428571432</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>13000</v>
       </c>
@@ -4654,7 +4676,7 @@
         <v>21.672081632653061</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>13100</v>
       </c>
@@ -4686,7 +4708,7 @@
         <v>21.333061224489793</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>13200</v>
       </c>
@@ -4718,7 +4740,7 @@
         <v>20.999265306122446</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>13300</v>
       </c>
@@ -4750,7 +4772,7 @@
         <v>20.670775510204081</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>13400</v>
       </c>
@@ -4782,7 +4804,7 @@
         <v>20.347346938775509</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>13500</v>
       </c>
@@ -4814,7 +4836,7 @@
         <v>20.02897959183673</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>13600</v>
       </c>
@@ -4846,7 +4868,7 @@
         <v>19.715673469387752</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>13700</v>
       </c>
@@ -4878,7 +4900,7 @@
         <v>19.407183673469387</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>13800</v>
       </c>
@@ -4910,7 +4932,7 @@
         <v>19.103591836734694</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>13900</v>
       </c>
@@ -4942,7 +4964,7 @@
         <v>18.804653061224489</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>14000</v>
       </c>
@@ -4974,7 +4996,7 @@
         <v>18.510448979591835</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>14100</v>
       </c>
@@ -5006,7 +5028,7 @@
         <v>18.22089795918367</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>14200</v>
       </c>
@@ -5038,7 +5060,7 @@
         <v>17.935836734693876</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>14300</v>
       </c>
@@ -5070,7 +5092,7 @@
         <v>17.655183673469384</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>14400</v>
       </c>
@@ -5102,7 +5124,7 @@
         <v>17.379020408163264</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>14500</v>
       </c>
@@ -5134,7 +5156,7 @@
         <v>17.107102040816326</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>14600</v>
       </c>
@@ -5166,7 +5188,7 @@
         <v>16.83942857142857</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>14700</v>
       </c>
@@ -5198,7 +5220,7 @@
         <v>16.576000000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>14800</v>
       </c>
@@ -5230,7 +5252,7 @@
         <v>16.316653061224489</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>14900</v>
       </c>
@@ -5262,7 +5284,7 @@
         <v>16.061387755102039</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>15000</v>
       </c>
@@ -5294,7 +5316,7 @@
         <v>15.810122448979591</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>15100</v>
       </c>
@@ -5326,7 +5348,7 @@
         <v>15.56277551020408</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>15200</v>
       </c>
@@ -5358,7 +5380,7 @@
         <v>15.319265306122448</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>15300</v>
       </c>
@@ -5390,7 +5412,7 @@
         <v>15.079591836734693</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>15400</v>
       </c>
@@ -5422,7 +5444,7 @@
         <v>14.843673469387753</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>15500</v>
       </c>
@@ -5454,7 +5476,7 @@
         <v>14.611428571428572</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>15600</v>
       </c>
@@ -5486,7 +5508,7 @@
         <v>14.382857142857141</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>15700</v>
       </c>
@@ -5518,7 +5540,7 @@
         <v>14.157795918367347</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>15800</v>
       </c>
@@ -5550,7 +5572,7 @@
         <v>13.936326530612245</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>15900</v>
       </c>
@@ -5582,7 +5604,7 @@
         <v>13.718285714285713</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>16000</v>
       </c>
@@ -5614,7 +5636,7 @@
         <v>13.503673469387756</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>16100</v>
       </c>
@@ -5646,7 +5668,7 @@
         <v>13.292408163265307</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>16200</v>
       </c>
@@ -5678,7 +5700,7 @@
         <v>13.084408163265307</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>16300</v>
       </c>
@@ -5710,7 +5732,7 @@
         <v>12.879755102040816</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>16400</v>
       </c>
@@ -5742,7 +5764,7 @@
         <v>12.678204081632652</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>16500</v>
       </c>
@@ -5774,7 +5796,7 @@
         <v>12.479836734693878</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>16600</v>
       </c>
@@ -5806,7 +5828,7 @@
         <v>12.284653061224491</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>16700</v>
       </c>
@@ -5838,7 +5860,7 @@
         <v>12.092408163265306</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>16800</v>
       </c>
@@ -5870,7 +5892,7 @@
         <v>11.903265306122449</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>16900</v>
       </c>
@@ -5902,7 +5924,7 @@
         <v>11.716979591836733</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>17000</v>
       </c>
@@ -5934,7 +5956,7 @@
         <v>11.533714285714284</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>17100</v>
       </c>
@@ -5966,7 +5988,7 @@
         <v>11.353224489795918</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>17200</v>
       </c>
@@ -5998,7 +6020,7 @@
         <v>11.175591836734693</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>17300</v>
       </c>
@@ -6030,7 +6052,7 @@
         <v>11.000734693877549</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>17400</v>
       </c>
@@ -6062,7 +6084,7 @@
         <v>10.828653061224488</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>17500</v>
       </c>
@@ -6094,7 +6116,7 @@
         <v>10.659265306122448</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>17600</v>
       </c>
@@ -6126,7 +6148,7 @@
         <v>10.492489795918367</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>17700</v>
       </c>
@@ -6158,7 +6180,7 @@
         <v>10.328326530612243</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>17800</v>
       </c>
@@ -6190,7 +6212,7 @@
         <v>10.166775510204081</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>17900</v>
       </c>
@@ -6222,7 +6244,7 @@
         <v>10.007673469387754</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>18000</v>
       </c>
@@ -6254,7 +6276,7 @@
         <v>9.8511020408163255</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>18100</v>
       </c>
@@ -6286,7 +6308,7 @@
         <v>9.6969795918367332</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>18200</v>
       </c>
@@ -6318,7 +6340,7 @@
         <v>9.545306122448979</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>18300</v>
       </c>
@@ -6350,7 +6372,7 @@
         <v>9.3959183673469386</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>18400</v>
       </c>
@@ -6382,7 +6404,7 @@
         <v>9.2488979591836724</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>18500</v>
       </c>
@@ -6414,7 +6436,7 @@
         <v>9.1042448979591839</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>18600</v>
       </c>
@@ -6446,7 +6468,7 @@
         <v>8.961795918367347</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>18700</v>
       </c>
@@ -6478,7 +6500,7 @@
         <v>8.8215510204081617</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>18800</v>
       </c>
@@ -6510,7 +6532,7 @@
         <v>8.683591836734692</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>18900</v>
       </c>
@@ -6542,7 +6564,7 @@
         <v>8.5477551020408153</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>19000</v>
       </c>
@@ -6574,7 +6596,7 @@
         <v>8.4139591836734677</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>19100</v>
       </c>
@@ -6606,7 +6628,7 @@
         <v>8.2823673469387735</v>
       </c>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>19200</v>
       </c>
@@ -6638,7 +6660,7 @@
         <v>8.1527673469387754</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>19300</v>
       </c>
@@ -6670,7 +6692,7 @@
         <v>8.0252163265306127</v>
       </c>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>19400</v>
       </c>
@@ -6702,7 +6724,7 @@
         <v>7.899665306122448</v>
       </c>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>19500</v>
       </c>
@@ -6734,7 +6756,7 @@
         <v>7.7760734693877547</v>
       </c>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>19600</v>
       </c>
@@ -6766,7 +6788,7 @@
         <v>7.6544163265306127</v>
       </c>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>19700</v>
       </c>
@@ -6798,7 +6820,7 @@
         <v>7.5346612244897955</v>
       </c>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>19800</v>
       </c>
@@ -6830,7 +6852,7 @@
         <v>7.416775510204082</v>
       </c>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>19900</v>
       </c>
@@ -6862,7 +6884,7 @@
         <v>7.3007428571428568</v>
       </c>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>20000</v>
       </c>
@@ -6894,7 +6916,7 @@
         <v>7.1865224489795914</v>
       </c>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>20100</v>
       </c>
@@ -6926,7 +6948,7 @@
         <v>7.0708489795918359</v>
       </c>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>20200</v>
       </c>
@@ -6958,7 +6980,7 @@
         <v>6.9570857142857143</v>
       </c>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>20300</v>
       </c>
@@ -6990,7 +7012,7 @@
         <v>6.8452081632653066</v>
       </c>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>20400</v>
       </c>
@@ -7022,7 +7044,7 @@
         <v>6.7351836734693871</v>
       </c>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>20500</v>
       </c>
@@ -7054,7 +7076,7 @@
         <v>6.6269714285714283</v>
       </c>
     </row>
-    <row r="208" spans="1:9">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>20600</v>
       </c>
@@ -7086,7 +7108,7 @@
         <v>6.5205551020408166</v>
       </c>
     </row>
-    <row r="209" spans="1:9">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>20700</v>
       </c>
@@ -7118,7 +7140,7 @@
         <v>6.4158857142857144</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>20800</v>
       </c>
@@ -7150,7 +7172,7 @@
         <v>6.3129469387755099</v>
       </c>
     </row>
-    <row r="211" spans="1:9">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>20900</v>
       </c>
@@ -7182,7 +7204,7 @@
         <v>6.2117061224489794</v>
       </c>
     </row>
-    <row r="212" spans="1:9">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>21000</v>
       </c>
@@ -7214,7 +7236,7 @@
         <v>6.1121387755102035</v>
       </c>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>21100</v>
       </c>
@@ -7246,7 +7268,7 @@
         <v>6.014204081632653</v>
       </c>
     </row>
-    <row r="214" spans="1:9">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>21200</v>
       </c>
@@ -7278,7 +7300,7 @@
         <v>5.9178857142857142</v>
       </c>
     </row>
-    <row r="215" spans="1:9">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>21300</v>
       </c>
@@ -7310,7 +7332,7 @@
         <v>5.8231510204081625</v>
       </c>
     </row>
-    <row r="216" spans="1:9">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>21400</v>
       </c>
@@ -7342,7 +7364,7 @@
         <v>5.7299836734693876</v>
       </c>
     </row>
-    <row r="217" spans="1:9">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>21500</v>
       </c>
@@ -7374,7 +7396,7 @@
         <v>5.638342857142856</v>
       </c>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>21600</v>
       </c>
@@ -7406,7 +7428,7 @@
         <v>5.5482040816326528</v>
       </c>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>21700</v>
       </c>
@@ -7438,7 +7460,7 @@
         <v>5.4595510204081625</v>
       </c>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>21800</v>
       </c>
@@ -7470,7 +7492,7 @@
         <v>5.3723591836734697</v>
       </c>
     </row>
-    <row r="221" spans="1:9">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>21900</v>
       </c>
@@ -7502,7 +7524,7 @@
         <v>5.2865877551020413</v>
       </c>
     </row>
-    <row r="222" spans="1:9">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>22000</v>
       </c>
@@ -7534,7 +7556,7 @@
         <v>5.202228571428571</v>
       </c>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>22100</v>
       </c>
@@ -7566,7 +7588,7 @@
         <v>5.1192571428571432</v>
       </c>
     </row>
-    <row r="224" spans="1:9">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>22200</v>
       </c>
@@ -7598,7 +7620,7 @@
         <v>5.0376408163265305</v>
       </c>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>22300</v>
       </c>
@@ -7630,7 +7652,7 @@
         <v>4.9573714285714283</v>
       </c>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>22400</v>
       </c>
@@ -7662,7 +7684,7 @@
         <v>4.8784081632653065</v>
       </c>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>22500</v>
       </c>
@@ -7694,7 +7716,7 @@
         <v>4.8007428571428568</v>
       </c>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>22600</v>
       </c>
@@ -7726,7 +7748,7 @@
         <v>4.7243428571428572</v>
       </c>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>22700</v>
       </c>
@@ -7758,7 +7780,7 @@
         <v>4.649191836734694</v>
       </c>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>22800</v>
       </c>
@@ -7790,7 +7812,7 @@
         <v>4.5752734693877546</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>22900</v>
       </c>
@@ -7822,7 +7844,7 @@
         <v>4.5025632653061223</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>23000</v>
       </c>
@@ -7854,7 +7876,7 @@
         <v>4.4310448979591834</v>
       </c>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>23100</v>
       </c>
@@ -7886,7 +7908,7 @@
         <v>4.3606857142857134</v>
       </c>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>23200</v>
       </c>
@@ -7918,7 +7940,7 @@
         <v>4.2914775510204084</v>
       </c>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>23300</v>
       </c>
@@ -7950,7 +7972,7 @@
         <v>4.223404081632653</v>
       </c>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>23400</v>
       </c>
@@ -7982,7 +8004,7 @@
         <v>4.1564408163265298</v>
       </c>
     </row>
-    <row r="237" spans="1:9">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>23500</v>
       </c>
@@ -8014,7 +8036,7 @@
         <v>4.0905632653061224</v>
       </c>
     </row>
-    <row r="238" spans="1:9">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>23600</v>
       </c>
@@ -8046,7 +8068,7 @@
         <v>4.025755102040816</v>
       </c>
     </row>
-    <row r="239" spans="1:9">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>23700</v>
       </c>
@@ -8078,7 +8100,7 @@
         <v>3.9620081632653057</v>
       </c>
     </row>
-    <row r="240" spans="1:9">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>23800</v>
       </c>
@@ -8110,7 +8132,7 @@
         <v>3.8993061224489796</v>
       </c>
     </row>
-    <row r="241" spans="1:9">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>23900</v>
       </c>
@@ -8142,7 +8164,7 @@
         <v>3.8376163265306116</v>
       </c>
     </row>
-    <row r="242" spans="1:9">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>24000</v>
       </c>
@@ -8174,7 +8196,7 @@
         <v>3.7769306122448976</v>
       </c>
     </row>
-    <row r="243" spans="1:9">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>24100</v>
       </c>
@@ -8206,7 +8228,7 @@
         <v>3.7172244897959179</v>
       </c>
     </row>
-    <row r="244" spans="1:9">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>24200</v>
       </c>
@@ -8238,7 +8260,7 @@
         <v>3.658497959183673</v>
       </c>
     </row>
-    <row r="245" spans="1:9">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>24300</v>
       </c>
@@ -8270,7 +8292,7 @@
         <v>3.6007265306122442</v>
       </c>
     </row>
-    <row r="246" spans="1:9">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>24400</v>
       </c>
@@ -8302,7 +8324,7 @@
         <v>3.5438857142857141</v>
       </c>
     </row>
-    <row r="247" spans="1:9">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>24500</v>
       </c>
@@ -8334,7 +8356,7 @@
         <v>3.4879673469387749</v>
       </c>
     </row>
-    <row r="248" spans="1:9">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>24600</v>
       </c>
@@ -8366,7 +8388,7 @@
         <v>3.4329632653061224</v>
       </c>
     </row>
-    <row r="249" spans="1:9">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>24700</v>
       </c>
@@ -8398,7 +8420,7 @@
         <v>3.3788489795918366</v>
       </c>
     </row>
-    <row r="250" spans="1:9">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>24800</v>
       </c>
@@ -8430,7 +8452,7 @@
         <v>3.3256081632653061</v>
       </c>
     </row>
-    <row r="251" spans="1:9">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>24900</v>
       </c>
@@ -8462,7 +8484,7 @@
         <v>3.2732326530612239</v>
       </c>
     </row>
-    <row r="252" spans="1:9">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>25000</v>
       </c>
@@ -8494,7 +8516,7 @@
         <v>3.2216979591836732</v>
       </c>
     </row>
-    <row r="253" spans="1:9">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>25100</v>
       </c>
@@ -8526,7 +8548,7 @@
         <v>3.171004081632653</v>
       </c>
     </row>
-    <row r="254" spans="1:9">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>25200</v>
       </c>
@@ -8558,7 +8580,7 @@
         <v>3.1211265306122447</v>
       </c>
     </row>
-    <row r="255" spans="1:9">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>25300</v>
       </c>
@@ -8590,7 +8612,7 @@
         <v>3.0720571428571422</v>
       </c>
     </row>
-    <row r="256" spans="1:9">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>25400</v>
       </c>
@@ -8622,7 +8644,7 @@
         <v>3.0237877551020405</v>
       </c>
     </row>
-    <row r="257" spans="1:9">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>25500</v>
       </c>
@@ -8654,7 +8676,7 @@
         <v>2.976285714285714</v>
       </c>
     </row>
-    <row r="258" spans="1:9">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>25600</v>
       </c>
@@ -8686,7 +8708,7 @@
         <v>2.9295591836734691</v>
       </c>
     </row>
-    <row r="259" spans="1:9">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>25700</v>
       </c>
@@ -8718,7 +8740,7 @@
         <v>2.8835836734693876</v>
       </c>
     </row>
-    <row r="260" spans="1:9">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>25800</v>
       </c>
@@ -8750,7 +8772,7 @@
         <v>2.8383510204081626</v>
       </c>
     </row>
-    <row r="261" spans="1:9">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>25900</v>
       </c>
@@ -8782,7 +8804,7 @@
         <v>2.7938448979591834</v>
       </c>
     </row>
-    <row r="262" spans="1:9">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>26000</v>
       </c>
@@ -8814,7 +8836,7 @@
         <v>2.7500571428571425</v>
       </c>
     </row>
-    <row r="263" spans="1:9">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>26100</v>
       </c>
@@ -8846,7 +8868,7 @@
         <v>2.7069795918367348</v>
       </c>
     </row>
-    <row r="264" spans="1:9">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>26200</v>
       </c>
@@ -8878,7 +8900,7 @@
         <v>2.6645959183673464</v>
       </c>
     </row>
-    <row r="265" spans="1:9">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>26300</v>
       </c>
@@ -8910,7 +8932,7 @@
         <v>2.6228897959183675</v>
       </c>
     </row>
-    <row r="266" spans="1:9">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>26400</v>
       </c>
@@ -8942,7 +8964,7 @@
         <v>2.5818530612244897</v>
       </c>
     </row>
-    <row r="267" spans="1:9">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>26500</v>
       </c>
@@ -8974,7 +8996,7 @@
         <v>2.541477551020408</v>
       </c>
     </row>
-    <row r="268" spans="1:9">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>26600</v>
       </c>
@@ -9006,7 +9028,7 @@
         <v>2.501755102040816</v>
       </c>
     </row>
-    <row r="269" spans="1:9">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>26700</v>
       </c>
@@ -9038,7 +9060,7 @@
         <v>2.4626693877551018</v>
       </c>
     </row>
-    <row r="270" spans="1:9">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>26800</v>
       </c>
@@ -9070,7 +9092,7 @@
         <v>2.4242122448979591</v>
       </c>
     </row>
-    <row r="271" spans="1:9">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>26900</v>
       </c>
@@ -9102,7 +9124,7 @@
         <v>2.3863673469387754</v>
       </c>
     </row>
-    <row r="272" spans="1:9">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>27000</v>
       </c>
@@ -9134,7 +9156,7 @@
         <v>2.3491346938775508</v>
       </c>
     </row>
-    <row r="273" spans="1:9">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>27100</v>
       </c>
@@ -9166,7 +9188,7 @@
         <v>2.3124979591836734</v>
       </c>
     </row>
-    <row r="274" spans="1:9">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>27200</v>
       </c>
@@ -9198,7 +9220,7 @@
         <v>2.2764489795918368</v>
       </c>
     </row>
-    <row r="275" spans="1:9">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>27300</v>
       </c>
@@ -9230,7 +9252,7 @@
         <v>2.2409714285714286</v>
       </c>
     </row>
-    <row r="276" spans="1:9">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>27400</v>
       </c>
@@ -9262,7 +9284,7 @@
         <v>2.2060734693877553</v>
       </c>
     </row>
-    <row r="277" spans="1:9">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>27500</v>
       </c>
@@ -9294,7 +9316,7 @@
         <v>2.1717224489795921</v>
       </c>
     </row>
-    <row r="278" spans="1:9">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>27600</v>
       </c>
@@ -9326,7 +9348,7 @@
         <v>2.137926530612245</v>
       </c>
     </row>
-    <row r="279" spans="1:9">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>27700</v>
       </c>
@@ -9358,7 +9380,7 @@
         <v>2.1046775510204081</v>
       </c>
     </row>
-    <row r="280" spans="1:9">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>27800</v>
       </c>
@@ -9390,7 +9412,7 @@
         <v>2.071951020408163</v>
       </c>
     </row>
-    <row r="281" spans="1:9">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>27900</v>
       </c>
@@ -9422,7 +9444,7 @@
         <v>2.0397551020408162</v>
       </c>
     </row>
-    <row r="282" spans="1:9">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>28000</v>
       </c>
@@ -9454,7 +9476,7 @@
         <v>2.0080653061224489</v>
       </c>
     </row>
-    <row r="283" spans="1:9">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>28100</v>
       </c>
@@ -9486,7 +9508,7 @@
         <v>1.9768897959183671</v>
       </c>
     </row>
-    <row r="284" spans="1:9">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>28200</v>
       </c>
@@ -9518,7 +9540,7 @@
         <v>1.9462040816326531</v>
       </c>
     </row>
-    <row r="285" spans="1:9">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>28300</v>
       </c>
@@ -9550,7 +9572,7 @@
         <v>1.9160163265306123</v>
       </c>
     </row>
-    <row r="286" spans="1:9">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>28400</v>
       </c>
@@ -9582,7 +9604,7 @@
         <v>1.8863020408163265</v>
       </c>
     </row>
-    <row r="287" spans="1:9">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>28500</v>
       </c>
@@ -9614,7 +9636,7 @@
         <v>1.8570612244897957</v>
       </c>
     </row>
-    <row r="288" spans="1:9">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>28600</v>
       </c>
@@ -9646,7 +9668,7 @@
         <v>1.8282938775510202</v>
       </c>
     </row>
-    <row r="289" spans="1:9">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>28700</v>
       </c>
@@ -9678,7 +9700,7 @@
         <v>1.7999836734693877</v>
       </c>
     </row>
-    <row r="290" spans="1:9">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>28800</v>
       </c>
@@ -9710,7 +9732,7 @@
         <v>1.7721142857142855</v>
       </c>
     </row>
-    <row r="291" spans="1:9">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>28900</v>
       </c>
@@ -9742,7 +9764,7 @@
         <v>1.7447020408163265</v>
       </c>
     </row>
-    <row r="292" spans="1:9">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>29000</v>
       </c>
@@ -9774,7 +9796,7 @@
         <v>1.7177142857142855</v>
       </c>
     </row>
-    <row r="293" spans="1:9">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>29100</v>
       </c>
@@ -9806,7 +9828,7 @@
         <v>1.6911591836734692</v>
       </c>
     </row>
-    <row r="294" spans="1:9">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>29200</v>
       </c>
@@ -9838,7 +9860,7 @@
         <v>1.6650285714285715</v>
       </c>
     </row>
-    <row r="295" spans="1:9">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>29300</v>
       </c>
@@ -9870,7 +9892,7 @@
         <v>1.6393142857142857</v>
       </c>
     </row>
-    <row r="296" spans="1:9">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>29400</v>
       </c>
@@ -9902,7 +9924,7 @@
         <v>1.6140081632653058</v>
       </c>
     </row>
-    <row r="297" spans="1:9">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>29500</v>
       </c>
@@ -9934,7 +9956,7 @@
         <v>1.5890938775510202</v>
       </c>
     </row>
-    <row r="298" spans="1:9">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>29600</v>
       </c>
@@ -9966,7 +9988,7 @@
         <v>1.5645877551020408</v>
       </c>
     </row>
-    <row r="299" spans="1:9">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>29700</v>
       </c>
@@ -9998,7 +10020,7 @@
         <v>1.5404653061224489</v>
       </c>
     </row>
-    <row r="300" spans="1:9">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>29800</v>
       </c>
@@ -10030,7 +10052,7 @@
         <v>1.5167183673469387</v>
       </c>
     </row>
-    <row r="301" spans="1:9">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>29900</v>
       </c>
@@ -10062,7 +10084,7 @@
         <v>1.4933551020408162</v>
       </c>
     </row>
-    <row r="302" spans="1:9">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>30000</v>
       </c>
@@ -10094,7 +10116,7 @@
         <v>1.4703591836734693</v>
       </c>
     </row>
-    <row r="303" spans="1:9">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>30100</v>
       </c>
@@ -10126,7 +10148,7 @@
         <v>1.4477306122448979</v>
       </c>
     </row>
-    <row r="304" spans="1:9">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>30200</v>
       </c>
@@ -10158,7 +10180,7 @@
         <v>1.4254612244897957</v>
       </c>
     </row>
-    <row r="305" spans="1:9">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>30300</v>
       </c>
@@ -10190,7 +10212,7 @@
         <v>1.4035428571428572</v>
       </c>
     </row>
-    <row r="306" spans="1:9">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>30400</v>
       </c>
@@ -10222,7 +10244,7 @@
         <v>1.3819673469387754</v>
       </c>
     </row>
-    <row r="307" spans="1:9">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>30500</v>
       </c>
@@ -10254,7 +10276,7 @@
         <v>1.3607346938775511</v>
       </c>
     </row>
-    <row r="308" spans="1:9">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>30600</v>
       </c>
@@ -10286,7 +10308,7 @@
         <v>1.3398367346938773</v>
       </c>
     </row>
-    <row r="309" spans="1:9">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>30700</v>
       </c>
@@ -10318,7 +10340,7 @@
         <v>1.3192653061224489</v>
       </c>
     </row>
-    <row r="310" spans="1:9">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>30800</v>
       </c>
@@ -10350,7 +10372,7 @@
         <v>1.2990204081632652</v>
       </c>
     </row>
-    <row r="311" spans="1:9">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>30900</v>
       </c>
@@ -10382,7 +10404,7 @@
         <v>1.2791020408163263</v>
       </c>
     </row>
-    <row r="312" spans="1:9">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>31000</v>
       </c>
@@ -10414,7 +10436,7 @@
         <v>1.2594938775510203</v>
       </c>
     </row>
-    <row r="313" spans="1:9">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>31100</v>
       </c>
@@ -10446,7 +10468,7 @@
         <v>1.2401877551020408</v>
       </c>
     </row>
-    <row r="314" spans="1:9">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>31200</v>
       </c>
@@ -10478,7 +10500,7 @@
         <v>1.2211918367346939</v>
       </c>
     </row>
-    <row r="315" spans="1:9">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>31300</v>
       </c>
@@ -10510,7 +10532,7 @@
         <v>1.2024979591836733</v>
       </c>
     </row>
-    <row r="316" spans="1:9">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>31400</v>
       </c>
@@ -10542,7 +10564,7 @@
         <v>1.1840897959183674</v>
       </c>
     </row>
-    <row r="317" spans="1:9">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>31500</v>
       </c>
@@ -10574,7 +10596,7 @@
         <v>1.1659755102040814</v>
       </c>
     </row>
-    <row r="318" spans="1:9">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>31600</v>
       </c>
@@ -10606,7 +10628,7 @@
         <v>1.1481469387755101</v>
       </c>
     </row>
-    <row r="319" spans="1:9">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>31700</v>
       </c>
@@ -10638,7 +10660,7 @@
         <v>1.130604081632653</v>
       </c>
     </row>
-    <row r="320" spans="1:9">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>31800</v>
       </c>
@@ -10670,7 +10692,7 @@
         <v>1.1133306122448978</v>
       </c>
     </row>
-    <row r="321" spans="1:9">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>31900</v>
       </c>
@@ -10702,7 +10724,7 @@
         <v>1.0963265306122449</v>
       </c>
     </row>
-    <row r="322" spans="1:9">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>32000</v>
       </c>
@@ -10734,7 +10756,7 @@
         <v>1.0795918367346939</v>
       </c>
     </row>
-    <row r="323" spans="1:9">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>32100</v>
       </c>
@@ -10766,7 +10788,7 @@
         <v>1.0622938775510202</v>
       </c>
     </row>
-    <row r="324" spans="1:9">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>32200</v>
       </c>
@@ -10798,7 +10820,7 @@
         <v>1.0452897959183673</v>
       </c>
     </row>
-    <row r="325" spans="1:9">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>32300</v>
       </c>
@@ -10830,7 +10852,7 @@
         <v>1.0285795918367346</v>
       </c>
     </row>
-    <row r="326" spans="1:9">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>32400</v>
       </c>
@@ -10862,7 +10884,7 @@
         <v>1.0121551020408162</v>
       </c>
     </row>
-    <row r="327" spans="1:9">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>32500</v>
       </c>
@@ -10894,7 +10916,7 @@
         <v>0.99600816326530595</v>
       </c>
     </row>
-    <row r="328" spans="1:9">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>32600</v>
       </c>
@@ -10926,7 +10948,7 @@
         <v>0.98014693877551007</v>
       </c>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>32700</v>
       </c>
@@ -10958,7 +10980,7 @@
         <v>0.96454693877551012</v>
       </c>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>32800</v>
       </c>
@@ -10990,7 +11012,7 @@
         <v>0.94922448979591834</v>
       </c>
     </row>
-    <row r="331" spans="1:9">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>32900</v>
       </c>
@@ -11022,7 +11044,7 @@
         <v>0.93415510204081609</v>
       </c>
     </row>
-    <row r="332" spans="1:9">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>33000</v>
       </c>
@@ -11054,7 +11076,7 @@
         <v>0.91934693877551021</v>
       </c>
     </row>
-    <row r="333" spans="1:9">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>33100</v>
       </c>
@@ -11086,7 +11108,7 @@
         <v>0.90479183673469377</v>
       </c>
     </row>
-    <row r="334" spans="1:9">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>33200</v>
       </c>
@@ -11118,7 +11140,7 @@
         <v>0.89048163265306124</v>
       </c>
     </row>
-    <row r="335" spans="1:9">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>33300</v>
       </c>
@@ -11150,7 +11172,7 @@
         <v>0.8764163265306123</v>
       </c>
     </row>
-    <row r="336" spans="1:9">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>33400</v>
       </c>
@@ -11182,7 +11204,7 @@
         <v>0.86258775510204067</v>
       </c>
     </row>
-    <row r="337" spans="1:9">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>33500</v>
       </c>
@@ -11214,7 +11236,7 @@
         <v>0.84899591836734689</v>
       </c>
     </row>
-    <row r="338" spans="1:9">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>33600</v>
       </c>
@@ -11246,7 +11268,7 @@
         <v>0.83563265306122436</v>
       </c>
     </row>
-    <row r="339" spans="1:9">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>33700</v>
       </c>
@@ -11278,7 +11300,7 @@
         <v>0.82249795918367341</v>
       </c>
     </row>
-    <row r="340" spans="1:9">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>33800</v>
       </c>
@@ -11310,7 +11332,7 @@
         <v>0.80957877551020396</v>
       </c>
     </row>
-    <row r="341" spans="1:9">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>33900</v>
       </c>
@@ -11342,7 +11364,7 @@
         <v>0.79688244897959171</v>
       </c>
     </row>
-    <row r="342" spans="1:9">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>34000</v>
       </c>
@@ -11374,7 +11396,7 @@
         <v>0.78439918367346939</v>
       </c>
     </row>
-    <row r="343" spans="1:9">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>34100</v>
       </c>
@@ -11406,7 +11428,7 @@
         <v>0.77212653061224479</v>
       </c>
     </row>
-    <row r="344" spans="1:9">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>34200</v>
       </c>
@@ -11438,7 +11460,7 @@
         <v>0.76005959183673466</v>
       </c>
     </row>
-    <row r="345" spans="1:9">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>34300</v>
       </c>
@@ -11470,7 +11492,7 @@
         <v>0.748195918367347</v>
       </c>
     </row>
-    <row r="346" spans="1:9">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>34400</v>
       </c>
@@ -11502,7 +11524,7 @@
         <v>0.7365306122448978</v>
       </c>
     </row>
-    <row r="347" spans="1:9">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>34500</v>
       </c>
@@ -11534,7 +11556,7 @@
         <v>0.72506122448979582</v>
       </c>
     </row>
-    <row r="348" spans="1:9">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>34600</v>
       </c>
@@ -11566,7 +11588,7 @@
         <v>0.71378367346938765</v>
       </c>
     </row>
-    <row r="349" spans="1:9">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>34700</v>
       </c>
@@ -11598,7 +11620,7 @@
         <v>0.70269387755102031</v>
       </c>
     </row>
-    <row r="350" spans="1:9">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>34800</v>
       </c>
@@ -11630,7 +11652,7 @@
         <v>0.69179020408163261</v>
       </c>
     </row>
-    <row r="351" spans="1:9">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>34900</v>
       </c>
@@ -11662,7 +11684,7 @@
         <v>0.68106775510204076</v>
       </c>
     </row>
-    <row r="352" spans="1:9">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>35000</v>
       </c>
@@ -11694,7 +11716,7 @@
         <v>0.67052408163265298</v>
       </c>
     </row>
-    <row r="353" spans="1:9">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>35100</v>
       </c>
@@ -11726,7 +11748,7 @@
         <v>0.66015591836734688</v>
       </c>
     </row>
-    <row r="354" spans="1:9">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>35200</v>
       </c>
@@ -11758,7 +11780,7 @@
         <v>0.64995999999999998</v>
       </c>
     </row>
-    <row r="355" spans="1:9">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>35300</v>
       </c>
@@ -11790,7 +11812,7 @@
         <v>0.63993306122448967</v>
       </c>
     </row>
-    <row r="356" spans="1:9">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>35400</v>
       </c>
@@ -11822,7 +11844,7 @@
         <v>0.63007265306122451</v>
       </c>
     </row>
-    <row r="357" spans="1:9">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>35500</v>
       </c>
@@ -11854,7 +11876,7 @@
         <v>0.62037469387755095</v>
       </c>
     </row>
-    <row r="358" spans="1:9">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>35600</v>
       </c>
@@ -11886,7 +11908,7 @@
         <v>0.61083836734693875</v>
       </c>
     </row>
-    <row r="359" spans="1:9">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>35700</v>
       </c>
@@ -11918,7 +11940,7 @@
         <v>0.6014587755102041</v>
       </c>
     </row>
-    <row r="360" spans="1:9">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>35800</v>
       </c>
@@ -11950,7 +11972,7 @@
         <v>0.59223346938775501</v>
       </c>
     </row>
-    <row r="361" spans="1:9">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>35900</v>
       </c>
@@ -11982,7 +12004,7 @@
         <v>0.58316081632653061</v>
       </c>
     </row>
-    <row r="362" spans="1:9">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>36000</v>
       </c>
@@ -12014,7 +12036,7 @@
         <v>0.57423755102040808</v>
       </c>
     </row>
-    <row r="363" spans="1:9">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>36100</v>
       </c>
@@ -12046,7 +12068,7 @@
         <v>0.56546122448979586</v>
       </c>
     </row>
-    <row r="364" spans="1:9">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>36200</v>
       </c>
@@ -12078,7 +12100,7 @@
         <v>0.55682857142857145</v>
       </c>
     </row>
-    <row r="365" spans="1:9">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>36300</v>
       </c>
@@ -12110,7 +12132,7 @@
         <v>0.54833795918367345</v>
       </c>
     </row>
-    <row r="366" spans="1:9">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>36400</v>
       </c>
@@ -12142,7 +12164,7 @@
         <v>0.53998612244897959</v>
       </c>
     </row>
-    <row r="367" spans="1:9">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>36500</v>
       </c>
@@ -12174,7 +12196,7 @@
         <v>0.53177061224489797</v>
       </c>
     </row>
-    <row r="368" spans="1:9">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>36600</v>
       </c>
@@ -12206,7 +12228,7 @@
         <v>0.52368979591836728</v>
       </c>
     </row>
-    <row r="369" spans="1:9">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>36700</v>
       </c>
@@ -12238,7 +12260,7 @@
         <v>0.51574122448979587</v>
       </c>
     </row>
-    <row r="370" spans="1:9">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>36800</v>
       </c>
@@ -12270,7 +12292,7 @@
         <v>0.50792244897959171</v>
       </c>
     </row>
-    <row r="371" spans="1:9">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>36900</v>
       </c>
@@ -12302,7 +12324,7 @@
         <v>0.50023020408163266</v>
       </c>
     </row>
-    <row r="372" spans="1:9">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>37000</v>
       </c>
@@ -12334,7 +12356,7 @@
         <v>0.49266367346938766</v>
       </c>
     </row>
-    <row r="373" spans="1:9">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>37100</v>
       </c>
@@ -12366,7 +12388,7 @@
         <v>0.48521959183673469</v>
       </c>
     </row>
-    <row r="374" spans="1:9">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>37200</v>
       </c>
@@ -12398,7 +12420,7 @@
         <v>0.4778971428571428</v>
       </c>
     </row>
-    <row r="375" spans="1:9">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>37300</v>
       </c>
@@ -12430,7 +12452,7 @@
         <v>0.47069306122448978</v>
       </c>
     </row>
-    <row r="376" spans="1:9">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>37400</v>
       </c>
@@ -12462,7 +12484,7 @@
         <v>0.46360571428571429</v>
       </c>
     </row>
-    <row r="377" spans="1:9">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>37500</v>
       </c>
@@ -12494,7 +12516,7 @@
         <v>0.45663265306122441</v>
       </c>
     </row>
-    <row r="378" spans="1:9">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>37600</v>
       </c>
@@ -12526,7 +12548,7 @@
         <v>0.44977306122448973</v>
       </c>
     </row>
-    <row r="379" spans="1:9">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>37700</v>
       </c>
@@ -12558,7 +12580,7 @@
         <v>0.44302367346938776</v>
       </c>
     </row>
-    <row r="380" spans="1:9">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>37800</v>
       </c>
@@ -12590,7 +12612,7 @@
         <v>0.43638285714285713</v>
       </c>
     </row>
-    <row r="381" spans="1:9">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>37900</v>
       </c>
@@ -12622,7 +12644,7 @@
         <v>0.42984979591836736</v>
       </c>
     </row>
-    <row r="382" spans="1:9">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>38000</v>
       </c>
@@ -12654,7 +12676,7 @@
         <v>0.42342122448979591</v>
       </c>
     </row>
-    <row r="383" spans="1:9">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>38100</v>
       </c>
@@ -12686,7 +12708,7 @@
         <v>0.41709632653061224</v>
       </c>
     </row>
-    <row r="384" spans="1:9">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>38200</v>
       </c>
@@ -12718,7 +12740,7 @@
         <v>0.41087265306122445</v>
       </c>
     </row>
-    <row r="385" spans="1:9">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>38300</v>
       </c>
@@ -12750,7 +12772,7 @@
         <v>0.4047485714285714</v>
       </c>
     </row>
-    <row r="386" spans="1:9">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>38400</v>
       </c>
@@ -12782,7 +12804,7 @@
         <v>0.39872326530612245</v>
       </c>
     </row>
-    <row r="387" spans="1:9">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>38500</v>
       </c>
@@ -12814,7 +12836,7 @@
         <v>0.39279346938775511</v>
       </c>
     </row>
-    <row r="388" spans="1:9">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>38600</v>
       </c>
@@ -12846,7 +12868,7 @@
         <v>0.38695918367346932</v>
       </c>
     </row>
-    <row r="389" spans="1:9">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>38700</v>
       </c>
@@ -12878,7 +12900,7 @@
         <v>0.38121795918367346</v>
       </c>
     </row>
-    <row r="390" spans="1:9">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>38800</v>
       </c>
@@ -12910,7 +12932,7 @@
         <v>0.37556816326530607</v>
       </c>
     </row>
-    <row r="391" spans="1:9">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>38900</v>
       </c>
@@ -12942,7 +12964,7 @@
         <v>0.37000816326530611</v>
       </c>
     </row>
-    <row r="392" spans="1:9">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>39000</v>
       </c>
@@ -12974,7 +12996,7 @@
         <v>0.36453632653061224</v>
       </c>
     </row>
-    <row r="393" spans="1:9">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>39100</v>
       </c>
@@ -13006,7 +13028,7 @@
         <v>0.35915183673469386</v>
       </c>
     </row>
-    <row r="394" spans="1:9">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>39200</v>
       </c>
@@ -13038,7 +13060,7 @@
         <v>0.35385306122448978</v>
       </c>
     </row>
-    <row r="395" spans="1:9">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>39300</v>
       </c>
@@ -13070,7 +13092,7 @@
         <v>0.34863755102040811</v>
       </c>
     </row>
-    <row r="396" spans="1:9">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>39400</v>
       </c>
@@ -13102,7 +13124,7 @@
         <v>0.34350530612244901</v>
       </c>
     </row>
-    <row r="397" spans="1:9">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>39500</v>
       </c>
@@ -13134,7 +13156,7 @@
         <v>0.33845387755102035</v>
       </c>
     </row>
-    <row r="398" spans="1:9">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>39600</v>
       </c>
@@ -13166,7 +13188,7 @@
         <v>0.33348244897959178</v>
       </c>
     </row>
-    <row r="399" spans="1:9">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>39700</v>
       </c>
@@ -13198,7 +13220,7 @@
         <v>0.32858938775510205</v>
       </c>
     </row>
-    <row r="400" spans="1:9">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>39800</v>
       </c>
@@ -13230,7 +13252,7 @@
         <v>0.32377387755102044</v>
       </c>
     </row>
-    <row r="401" spans="1:9">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>39900</v>
       </c>
@@ -13262,7 +13284,7 @@
         <v>0.31903346938775506</v>
       </c>
     </row>
-    <row r="402" spans="1:9">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>40000</v>
       </c>
@@ -13294,7 +13316,7 @@
         <v>0.31436816326530614</v>
       </c>
     </row>
-    <row r="403" spans="1:9">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>40100</v>
       </c>
@@ -13326,7 +13348,7 @@
         <v>0.30977632653061221</v>
       </c>
     </row>
-    <row r="404" spans="1:9">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>40200</v>
       </c>
@@ -13358,7 +13380,7 @@
         <v>0.30525632653061219</v>
       </c>
     </row>
-    <row r="405" spans="1:9">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>40300</v>
       </c>
@@ -13390,7 +13412,7 @@
         <v>0.30080653061224488</v>
       </c>
     </row>
-    <row r="406" spans="1:9">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>40400</v>
       </c>
@@ -13422,7 +13444,7 @@
         <v>0.29642693877551018</v>
       </c>
     </row>
-    <row r="407" spans="1:9">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>40500</v>
       </c>
@@ -13454,7 +13476,7 @@
         <v>0.29211591836734691</v>
       </c>
     </row>
-    <row r="408" spans="1:9">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>40600</v>
       </c>
@@ -13486,7 +13508,7 @@
         <v>0.28787265306122445</v>
       </c>
     </row>
-    <row r="409" spans="1:9">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>40700</v>
       </c>
@@ -13518,7 +13540,7 @@
         <v>0.28369551020408157</v>
       </c>
     </row>
-    <row r="410" spans="1:9">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>40800</v>
       </c>
@@ -13550,7 +13572,7 @@
         <v>0.27958285714285713</v>
       </c>
     </row>
-    <row r="411" spans="1:9">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>40900</v>
       </c>
@@ -13582,7 +13604,7 @@
         <v>0.27553469387755103</v>
       </c>
     </row>
-    <row r="412" spans="1:9">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>41000</v>
       </c>
@@ -13614,7 +13636,7 @@
         <v>0.27154938775510201</v>
       </c>
     </row>
-    <row r="413" spans="1:9">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>41100</v>
       </c>
@@ -13646,7 +13668,7 @@
         <v>0.2676261224489796</v>
       </c>
     </row>
-    <row r="414" spans="1:9">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>41200</v>
       </c>
@@ -13678,7 +13700,7 @@
         <v>0.26376408163265302</v>
       </c>
     </row>
-    <row r="415" spans="1:9">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>41300</v>
       </c>
@@ -13710,7 +13732,7 @@
         <v>0.25996163265306121</v>
       </c>
     </row>
-    <row r="416" spans="1:9">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>41400</v>
       </c>
@@ -13742,7 +13764,7 @@
         <v>0.25621795918367346</v>
       </c>
     </row>
-    <row r="417" spans="1:9">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>41500</v>
       </c>
@@ -13774,7 +13796,7 @@
         <v>0.25253224489795917</v>
       </c>
     </row>
-    <row r="418" spans="1:9">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>41600</v>
       </c>
@@ -13806,7 +13828,7 @@
         <v>0.24890367346938774</v>
       </c>
     </row>
-    <row r="419" spans="1:9">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>41700</v>
       </c>
@@ -13838,7 +13860,7 @@
         <v>0.24533142857142859</v>
       </c>
     </row>
-    <row r="420" spans="1:9">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>41800</v>
       </c>
@@ -13870,7 +13892,7 @@
         <v>0.24181387755102035</v>
       </c>
     </row>
-    <row r="421" spans="1:9">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>41900</v>
       </c>
@@ -13902,7 +13924,7 @@
         <v>0.2383502040816326</v>
       </c>
     </row>
-    <row r="422" spans="1:9">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>42000</v>
       </c>
@@ -13934,7 +13956,7 @@
         <v>0.23494040816326528</v>
       </c>
     </row>
-    <row r="423" spans="1:9">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>42100</v>
       </c>
@@ -13966,7 +13988,7 @@
         <v>0.23158285714285715</v>
       </c>
     </row>
-    <row r="424" spans="1:9">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>42200</v>
       </c>
@@ -13998,7 +14020,7 @@
         <v>0.22827673469387758</v>
       </c>
     </row>
-    <row r="425" spans="1:9">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>42300</v>
       </c>
@@ -14030,7 +14052,7 @@
         <v>0.22502122448979592</v>
       </c>
     </row>
-    <row r="426" spans="1:9">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>42400</v>
       </c>
@@ -14062,7 +14084,7 @@
         <v>0.2218163265306122</v>
       </c>
     </row>
-    <row r="427" spans="1:9">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>42500</v>
       </c>
@@ -14094,7 +14116,7 @@
         <v>0.21865959183673464</v>
       </c>
     </row>
-    <row r="428" spans="1:9">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>42600</v>
       </c>
@@ -14126,7 +14148,7 @@
         <v>0.21555183673469389</v>
       </c>
     </row>
-    <row r="429" spans="1:9">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>42700</v>
       </c>
@@ -14158,7 +14180,7 @@
         <v>0.21249142857142858</v>
       </c>
     </row>
-    <row r="430" spans="1:9">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>42800</v>
       </c>
@@ -14190,7 +14212,7 @@
         <v>0.20947673469387754</v>
       </c>
     </row>
-    <row r="431" spans="1:9">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>42900</v>
       </c>
@@ -14222,7 +14244,7 @@
         <v>0.20650938775510203</v>
       </c>
     </row>
-    <row r="432" spans="1:9">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>43000</v>
       </c>
@@ -14254,7 +14276,7 @@
         <v>0.20358612244897961</v>
       </c>
     </row>
-    <row r="433" spans="1:9">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>43100</v>
       </c>
@@ -14286,7 +14308,7 @@
         <v>0.20070775510204081</v>
       </c>
     </row>
-    <row r="434" spans="1:9">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>43200</v>
       </c>
@@ -14318,7 +14340,7 @@
         <v>0.19787346938775507</v>
       </c>
     </row>
-    <row r="435" spans="1:9">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>43300</v>
       </c>
@@ -14350,7 +14372,7 @@
         <v>0.19508163265306119</v>
       </c>
     </row>
-    <row r="436" spans="1:9">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>43400</v>
       </c>
@@ -14382,7 +14404,7 @@
         <v>0.19233224489795916</v>
       </c>
     </row>
-    <row r="437" spans="1:9">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>43500</v>
       </c>
@@ -14414,7 +14436,7 @@
         <v>0.18962530612244899</v>
       </c>
     </row>
-    <row r="438" spans="1:9">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>43600</v>
       </c>
@@ -14446,7 +14468,7 @@
         <v>0.18695836734693874</v>
       </c>
     </row>
-    <row r="439" spans="1:9">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>43700</v>
       </c>
@@ -14478,7 +14500,7 @@
         <v>0.18433224489795916</v>
       </c>
     </row>
-    <row r="440" spans="1:9">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>43800</v>
       </c>
@@ -14510,7 +14532,7 @@
         <v>0.18174530612244896</v>
       </c>
     </row>
-    <row r="441" spans="1:9">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>43900</v>
       </c>
@@ -14542,7 +14564,7 @@
         <v>0.17919755102040816</v>
       </c>
     </row>
-    <row r="442" spans="1:9">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>44000</v>
       </c>
@@ -14574,7 +14596,7 @@
         <v>0.17668816326530612</v>
       </c>
     </row>
-    <row r="443" spans="1:9">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>44100</v>
       </c>
@@ -14606,7 +14628,7 @@
         <v>0.17421632653061223</v>
       </c>
     </row>
-    <row r="444" spans="1:9">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>44200</v>
       </c>
@@ -14638,7 +14660,7 @@
         <v>0.17178204081632653</v>
       </c>
     </row>
-    <row r="445" spans="1:9">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>44300</v>
       </c>
@@ -14670,7 +14692,7 @@
         <v>0.16938448979591836</v>
       </c>
     </row>
-    <row r="446" spans="1:9">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>44400</v>
       </c>
@@ -14702,7 +14724,7 @@
         <v>0.16702204081632652</v>
       </c>
     </row>
-    <row r="447" spans="1:9">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>44500</v>
       </c>
@@ -14734,7 +14756,7 @@
         <v>0.16469551020408163</v>
       </c>
     </row>
-    <row r="448" spans="1:9">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>44600</v>
       </c>
@@ -14766,7 +14788,7 @@
         <v>0.16240408163265302</v>
       </c>
     </row>
-    <row r="449" spans="1:9">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>44700</v>
       </c>
@@ -14798,7 +14820,7 @@
         <v>0.1601469387755102</v>
       </c>
     </row>
-    <row r="450" spans="1:9">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>44800</v>
       </c>
@@ -14830,7 +14852,7 @@
         <v>0.15792326530612244</v>
       </c>
     </row>
-    <row r="451" spans="1:9">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>44900</v>
       </c>
@@ -14862,7 +14884,7 @@
         <v>0.15573224489795917</v>
       </c>
     </row>
-    <row r="452" spans="1:9">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>45000</v>
       </c>
@@ -14894,7 +14916,7 @@
         <v>0.15357469387755102</v>
       </c>
     </row>
-    <row r="453" spans="1:9">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>45100</v>
       </c>
@@ -14926,7 +14948,7 @@
         <v>0.15144897959183673</v>
       </c>
     </row>
-    <row r="454" spans="1:9">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>45200</v>
       </c>
@@ -14958,7 +14980,7 @@
         <v>0.14935510204081631</v>
       </c>
     </row>
-    <row r="455" spans="1:9">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>45300</v>
       </c>
@@ -14990,7 +15012,7 @@
         <v>0.14729142857142857</v>
       </c>
     </row>
-    <row r="456" spans="1:9">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>45400</v>
       </c>
@@ -15022,7 +15044,7 @@
         <v>0.1452595918367347</v>
       </c>
     </row>
-    <row r="457" spans="1:9">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>45500</v>
       </c>
@@ -15054,7 +15076,7 @@
         <v>0.14325714285714283</v>
       </c>
     </row>
-    <row r="458" spans="1:9">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>45600</v>
       </c>
@@ -15086,7 +15108,7 @@
         <v>0.14128489795918367</v>
       </c>
     </row>
-    <row r="459" spans="1:9">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>45700</v>
       </c>
@@ -15118,7 +15140,7 @@
         <v>0.13934122448979591</v>
       </c>
     </row>
-    <row r="460" spans="1:9">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>45800</v>
       </c>
@@ -15150,7 +15172,7 @@
         <v>0.13742693877551018</v>
       </c>
     </row>
-    <row r="461" spans="1:9">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>45900</v>
       </c>
@@ -15182,7 +15204,7 @@
         <v>0.13554040816326529</v>
       </c>
     </row>
-    <row r="462" spans="1:9">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>46000</v>
       </c>
@@ -15214,7 +15236,7 @@
         <v>0.13368163265306121</v>
       </c>
     </row>
-    <row r="463" spans="1:9">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>46100</v>
       </c>
@@ -15246,7 +15268,7 @@
         <v>0.13185061224489794</v>
       </c>
     </row>
-    <row r="464" spans="1:9">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>46200</v>
       </c>
@@ -15278,7 +15300,7 @@
         <v>0.13004653061224489</v>
       </c>
     </row>
-    <row r="465" spans="1:9">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>46300</v>
       </c>
@@ -15310,7 +15332,7 @@
         <v>0.1282685714285714</v>
       </c>
     </row>
-    <row r="466" spans="1:9">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>46400</v>
       </c>
@@ -15342,7 +15364,7 @@
         <v>0.12651673469387753</v>
       </c>
     </row>
-    <row r="467" spans="1:9">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>46500</v>
       </c>
@@ -15374,7 +15396,7 @@
         <v>0.12479102040816326</v>
       </c>
     </row>
-    <row r="468" spans="1:9">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>46600</v>
       </c>
@@ -15406,7 +15428,7 @@
         <v>0.12309061224489795</v>
       </c>
     </row>
-    <row r="469" spans="1:9">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>46700</v>
       </c>
@@ -15438,7 +15460,7 @@
         <v>0.12141469387755102</v>
       </c>
     </row>
-    <row r="470" spans="1:9">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>46800</v>
       </c>
@@ -15470,7 +15492,7 @@
         <v>0.11976326530612244</v>
       </c>
     </row>
-    <row r="471" spans="1:9">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>46900</v>
       </c>
@@ -15502,7 +15524,7 @@
         <v>0.11813632653061223</v>
       </c>
     </row>
-    <row r="472" spans="1:9">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>47000</v>
       </c>
@@ -15534,7 +15556,7 @@
         <v>0.11653306122448978</v>
       </c>
     </row>
-    <row r="473" spans="1:9">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>47100</v>
       </c>
@@ -15566,7 +15588,7 @@
         <v>0.11507183673469387</v>
       </c>
     </row>
-    <row r="474" spans="1:9">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>47200</v>
       </c>
@@ -15598,7 +15620,7 @@
         <v>0.11362857142857143</v>
       </c>
     </row>
-    <row r="475" spans="1:9">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>47300</v>
       </c>
@@ -15630,7 +15652,7 @@
         <v>0.11220326530612243</v>
       </c>
     </row>
-    <row r="476" spans="1:9">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>47400</v>
       </c>
@@ -15662,7 +15684,7 @@
         <v>0.11079591836734692</v>
       </c>
     </row>
-    <row r="477" spans="1:9">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>47500</v>
       </c>
@@ -15694,7 +15716,7 @@
         <v>0.10940571428571429</v>
       </c>
     </row>
-    <row r="478" spans="1:9">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>47600</v>
       </c>
@@ -15726,7 +15748,7 @@
         <v>0.1080334693877551</v>
       </c>
     </row>
-    <row r="479" spans="1:9">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>47700</v>
       </c>
@@ -15758,7 +15780,7 @@
         <v>0.10667836734693877</v>
       </c>
     </row>
-    <row r="480" spans="1:9">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>47800</v>
       </c>
@@ -15790,7 +15812,7 @@
         <v>0.10534040816326531</v>
       </c>
     </row>
-    <row r="481" spans="1:9">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>47900</v>
       </c>
@@ -15822,7 +15844,7 @@
         <v>0.10401877551020407</v>
       </c>
     </row>
-    <row r="482" spans="1:9">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>48000</v>
       </c>
@@ -15854,7 +15876,7 @@
         <v>0.10271428571428572</v>
       </c>
     </row>
-    <row r="483" spans="1:9">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>48100</v>
       </c>
@@ -15886,7 +15908,7 @@
         <v>0.1014261224489796</v>
       </c>
     </row>
-    <row r="484" spans="1:9">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>48200</v>
       </c>
@@ -15918,7 +15940,7 @@
         <v>0.1001534693877551</v>
       </c>
     </row>
-    <row r="485" spans="1:9">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>48300</v>
       </c>
@@ -15950,7 +15972,7 @@
         <v>9.889714285714285E-2</v>
       </c>
     </row>
-    <row r="486" spans="1:9">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>48400</v>
       </c>
@@ -15982,7 +16004,7 @@
         <v>9.7657142857142845E-2</v>
       </c>
     </row>
-    <row r="487" spans="1:9">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>48500</v>
       </c>
@@ -16014,7 +16036,7 @@
         <v>9.6431836734693868E-2</v>
       </c>
     </row>
-    <row r="488" spans="1:9">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>48600</v>
       </c>
@@ -16046,7 +16068,7 @@
         <v>9.5222040816326514E-2</v>
       </c>
     </row>
-    <row r="489" spans="1:9">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>48700</v>
       </c>
@@ -16078,7 +16100,7 @@
         <v>9.4027755102040797E-2</v>
       </c>
     </row>
-    <row r="490" spans="1:9">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>48800</v>
       </c>
@@ -16110,7 +16132,7 @@
         <v>9.2848163265306122E-2</v>
       </c>
     </row>
-    <row r="491" spans="1:9">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>48900</v>
       </c>
@@ -16142,7 +16164,7 @@
         <v>9.1684081632653056E-2</v>
       </c>
     </row>
-    <row r="492" spans="1:9">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>49000</v>
       </c>
@@ -16174,7 +16196,7 @@
         <v>9.0533877551020395E-2</v>
       </c>
     </row>
-    <row r="493" spans="1:9">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>49100</v>
       </c>
@@ -16206,7 +16228,7 @@
         <v>8.9398367346938762E-2</v>
       </c>
     </row>
-    <row r="494" spans="1:9">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>49200</v>
       </c>
@@ -16238,7 +16260,7 @@
         <v>8.8276734693877548E-2</v>
       </c>
     </row>
-    <row r="495" spans="1:9">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>49300</v>
       </c>
@@ -16270,7 +16292,7 @@
         <v>8.7169795918367349E-2</v>
       </c>
     </row>
-    <row r="496" spans="1:9">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>49400</v>
       </c>
@@ -16302,7 +16324,7 @@
         <v>8.6075918367346932E-2</v>
       </c>
     </row>
-    <row r="497" spans="1:9">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>49500</v>
       </c>
@@ -16334,7 +16356,7 @@
         <v>8.4996734693877557E-2</v>
       </c>
     </row>
-    <row r="498" spans="1:9">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>49600</v>
       </c>
@@ -16366,7 +16388,7 @@
         <v>8.3930612244897951E-2</v>
       </c>
     </row>
-    <row r="499" spans="1:9">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>49700</v>
       </c>
@@ -16398,7 +16420,7 @@
         <v>8.2877551020408169E-2</v>
       </c>
     </row>
-    <row r="500" spans="1:9">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>49800</v>
       </c>
@@ -16430,7 +16452,7 @@
         <v>8.1838367346938765E-2</v>
       </c>
     </row>
-    <row r="501" spans="1:9">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>49900</v>
       </c>
@@ -16462,7 +16484,7 @@
         <v>8.0811591836734684E-2</v>
       </c>
     </row>
-    <row r="502" spans="1:9">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>50000</v>
       </c>
@@ -16494,7 +16516,7 @@
         <v>7.9797959183673453E-2</v>
       </c>
     </row>
-    <row r="503" spans="1:9">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>50100</v>
       </c>
@@ -16526,7 +16548,7 @@
         <v>7.8797061224489789E-2</v>
       </c>
     </row>
-    <row r="504" spans="1:9">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>50200</v>
       </c>
@@ -16558,7 +16580,7 @@
         <v>7.7808653061224489E-2</v>
       </c>
     </row>
-    <row r="505" spans="1:9">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>50300</v>
       </c>
@@ -16590,7 +16612,7 @@
         <v>7.6832653061224485E-2</v>
       </c>
     </row>
-    <row r="506" spans="1:9">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>50400</v>
       </c>
@@ -16622,7 +16644,7 @@
         <v>7.5868979591836722E-2</v>
       </c>
     </row>
-    <row r="507" spans="1:9">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>50500</v>
       </c>
@@ -16654,7 +16676,7 @@
         <v>7.4917306122448971E-2</v>
       </c>
     </row>
-    <row r="508" spans="1:9">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>50600</v>
       </c>
@@ -16686,7 +16708,7 @@
         <v>7.3977551020408164E-2</v>
       </c>
     </row>
-    <row r="509" spans="1:9">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>50700</v>
       </c>
@@ -16718,7 +16740,7 @@
         <v>7.3049632653061219E-2</v>
       </c>
     </row>
-    <row r="510" spans="1:9">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>50800</v>
       </c>
@@ -16750,7 +16772,7 @@
         <v>7.213338775510203E-2</v>
       </c>
     </row>
-    <row r="511" spans="1:9">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>50900</v>
       </c>
@@ -16782,7 +16804,7 @@
         <v>7.1228571428571419E-2</v>
       </c>
     </row>
-    <row r="512" spans="1:9">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>51000</v>
       </c>
@@ -16814,7 +16836,7 @@
         <v>7.0335183673469387E-2</v>
       </c>
     </row>
-    <row r="513" spans="1:9">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>51100</v>
       </c>
@@ -16846,7 +16868,7 @@
         <v>6.95244081632653E-2</v>
       </c>
     </row>
-    <row r="514" spans="1:9">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>51200</v>
       </c>
@@ -16878,7 +16900,7 @@
         <v>6.8722122448979586E-2</v>
       </c>
     </row>
-    <row r="515" spans="1:9">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>51300</v>
       </c>
@@ -16910,7 +16932,7 @@
         <v>6.7928326530612232E-2</v>
       </c>
     </row>
-    <row r="516" spans="1:9">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>51400</v>
       </c>
@@ -16942,7 +16964,7 @@
         <v>6.7142857142857143E-2</v>
       </c>
     </row>
-    <row r="517" spans="1:9">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>51500</v>
       </c>
@@ -16974,7 +16996,7 @@
         <v>6.6365714285714278E-2</v>
       </c>
     </row>
-    <row r="518" spans="1:9">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>51600</v>
       </c>
@@ -17006,7 +17028,7 @@
         <v>6.5596734693877543E-2</v>
       </c>
     </row>
-    <row r="519" spans="1:9">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>51700</v>
       </c>
@@ -17038,7 +17060,7 @@
         <v>6.4835918367346937E-2</v>
       </c>
     </row>
-    <row r="520" spans="1:9">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>51800</v>
       </c>
@@ -17070,7 +17092,7 @@
         <v>6.4083102040816312E-2</v>
       </c>
     </row>
-    <row r="521" spans="1:9">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>51900</v>
       </c>
@@ -17102,7 +17124,7 @@
         <v>6.3338285714285708E-2</v>
       </c>
     </row>
-    <row r="522" spans="1:9">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>52000</v>
       </c>
@@ -17134,7 +17156,7 @@
         <v>6.2601387755102031E-2</v>
       </c>
     </row>
-    <row r="523" spans="1:9">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>52100</v>
       </c>
@@ -17166,7 +17188,7 @@
         <v>6.1872244897959186E-2</v>
       </c>
     </row>
-    <row r="524" spans="1:9">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>52200</v>
       </c>
@@ -17198,7 +17220,7 @@
         <v>6.1150857142857146E-2</v>
       </c>
     </row>
-    <row r="525" spans="1:9">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>52300</v>
       </c>
@@ -17230,7 +17252,7 @@
         <v>6.0437142857142856E-2</v>
       </c>
     </row>
-    <row r="526" spans="1:9">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>52400</v>
       </c>
@@ -17262,7 +17284,7 @@
         <v>5.9731020408163263E-2</v>
       </c>
     </row>
-    <row r="527" spans="1:9">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>52500</v>
       </c>
@@ -17294,7 +17316,7 @@
         <v>5.9032408163265306E-2</v>
       </c>
     </row>
-    <row r="528" spans="1:9">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>52600</v>
       </c>
@@ -17326,7 +17348,7 @@
         <v>5.8341306122448977E-2</v>
       </c>
     </row>
-    <row r="529" spans="1:9">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>52700</v>
       </c>
@@ -17358,7 +17380,7 @@
         <v>5.7657551020408156E-2</v>
       </c>
     </row>
-    <row r="530" spans="1:9">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>52800</v>
       </c>
@@ -17390,7 +17412,7 @@
         <v>5.6981061224489794E-2</v>
       </c>
     </row>
-    <row r="531" spans="1:9">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>52900</v>
       </c>
@@ -17422,7 +17444,7 @@
         <v>5.6311836734693872E-2</v>
       </c>
     </row>
-    <row r="532" spans="1:9">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>53000</v>
       </c>
@@ -17454,7 +17476,7 @@
         <v>5.5649795918367342E-2</v>
       </c>
     </row>
-    <row r="533" spans="1:9">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>53100</v>
       </c>
@@ -17486,7 +17508,7 @@
         <v>5.499485714285713E-2</v>
       </c>
     </row>
-    <row r="534" spans="1:9">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>53200</v>
       </c>
@@ -17518,7 +17540,7 @@
         <v>5.4346857142857141E-2</v>
       </c>
     </row>
-    <row r="535" spans="1:9">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>53300</v>
       </c>
@@ -17550,7 +17572,7 @@
         <v>5.3705877551020402E-2</v>
       </c>
     </row>
-    <row r="536" spans="1:9">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>53400</v>
       </c>
@@ -17582,7 +17604,7 @@
         <v>5.3071836734693865E-2</v>
       </c>
     </row>
-    <row r="537" spans="1:9">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>53500</v>
       </c>
@@ -17614,7 +17636,7 @@
         <v>5.2444571428571424E-2</v>
       </c>
     </row>
-    <row r="538" spans="1:9">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>53600</v>
       </c>
@@ -17646,7 +17668,7 @@
         <v>5.1824081632653056E-2</v>
       </c>
     </row>
-    <row r="539" spans="1:9">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>53700</v>
       </c>
@@ -17678,7 +17700,7 @@
         <v>5.1210285714285708E-2</v>
       </c>
     </row>
-    <row r="540" spans="1:9">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>53800</v>
       </c>
@@ -17710,7 +17732,7 @@
         <v>5.060310204081632E-2</v>
       </c>
     </row>
-    <row r="541" spans="1:9">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>53900</v>
       </c>
@@ -17742,7 +17764,7 @@
         <v>5.0002448979591829E-2</v>
       </c>
     </row>
-    <row r="542" spans="1:9">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>54000</v>
       </c>
@@ -17774,7 +17796,7 @@
         <v>4.9408326530612244E-2</v>
       </c>
     </row>
-    <row r="543" spans="1:9">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>54100</v>
       </c>
@@ -17806,7 +17828,7 @@
         <v>4.8820653061224482E-2</v>
       </c>
     </row>
-    <row r="544" spans="1:9">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>54200</v>
       </c>
@@ -17838,7 +17860,7 @@
         <v>4.8239346938775504E-2</v>
       </c>
     </row>
-    <row r="545" spans="1:9">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>54300</v>
       </c>
@@ -17870,7 +17892,7 @@
         <v>4.7664326530612242E-2</v>
       </c>
     </row>
-    <row r="546" spans="1:9">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>54400</v>
       </c>
@@ -17902,7 +17924,7 @@
         <v>4.7095591836734688E-2</v>
       </c>
     </row>
-    <row r="547" spans="1:9">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>54500</v>
       </c>
@@ -17934,7 +17956,7 @@
         <v>4.6533061224489788E-2</v>
       </c>
     </row>
-    <row r="548" spans="1:9">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>54600</v>
       </c>
@@ -17966,7 +17988,7 @@
         <v>4.597665306122449E-2</v>
       </c>
     </row>
-    <row r="549" spans="1:9">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>54700</v>
       </c>
@@ -17998,7 +18020,7 @@
         <v>4.5426285714285711E-2</v>
       </c>
     </row>
-    <row r="550" spans="1:9">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>54800</v>
       </c>
@@ -18030,7 +18052,7 @@
         <v>4.4881877551020403E-2</v>
       </c>
     </row>
-    <row r="551" spans="1:9">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>54900</v>
       </c>
@@ -18062,7 +18084,7 @@
         <v>4.4343510204081629E-2</v>
       </c>
     </row>
-    <row r="552" spans="1:9">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>55000</v>
       </c>
@@ -18094,7 +18116,7 @@
         <v>4.3810938775510198E-2</v>
       </c>
     </row>
-    <row r="553" spans="1:9">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>55100</v>
       </c>
@@ -18126,7 +18148,7 @@
         <v>4.3284244897959172E-2</v>
       </c>
     </row>
-    <row r="554" spans="1:9">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>55200</v>
       </c>
@@ -18158,7 +18180,7 @@
         <v>4.2763346938775509E-2</v>
       </c>
     </row>
-    <row r="555" spans="1:9">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>55300</v>
       </c>
@@ -18190,7 +18212,7 @@
         <v>4.2248081632653062E-2</v>
       </c>
     </row>
-    <row r="556" spans="1:9">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>55400</v>
       </c>
@@ -18222,7 +18244,7 @@
         <v>4.1738612244897957E-2</v>
       </c>
     </row>
-    <row r="557" spans="1:9">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>55500</v>
       </c>
@@ -18254,7 +18276,7 @@
         <v>4.123461224489796E-2</v>
       </c>
     </row>
-    <row r="558" spans="1:9">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>55600</v>
       </c>
@@ -18286,7 +18308,7 @@
         <v>4.0736244897959177E-2</v>
       </c>
     </row>
-    <row r="559" spans="1:9">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>55700</v>
       </c>
@@ -18318,7 +18340,7 @@
         <v>4.0243346938775508E-2</v>
       </c>
     </row>
-    <row r="560" spans="1:9">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>55800</v>
       </c>
@@ -18350,7 +18372,7 @@
         <v>3.9755836734693871E-2</v>
       </c>
     </row>
-    <row r="561" spans="1:9">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>55900</v>
       </c>
@@ -18382,7 +18404,7 @@
         <v>3.9273795918367348E-2</v>
       </c>
     </row>
-    <row r="562" spans="1:9">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>56000</v>
       </c>
@@ -18414,7 +18436,7 @@
         <v>3.8796979591836735E-2</v>
       </c>
     </row>
-    <row r="563" spans="1:9">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>56100</v>
       </c>
@@ -18446,7 +18468,7 @@
         <v>3.8325551020408161E-2</v>
       </c>
     </row>
-    <row r="564" spans="1:9">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>56200</v>
       </c>
@@ -18478,7 +18500,7 @@
         <v>3.785926530612245E-2</v>
       </c>
     </row>
-    <row r="565" spans="1:9">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>56300</v>
       </c>
@@ -18510,7 +18532,7 @@
         <v>3.7398204081632649E-2</v>
       </c>
     </row>
-    <row r="566" spans="1:9">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>56400</v>
       </c>
@@ -18542,7 +18564,7 @@
         <v>3.6942204081632651E-2</v>
       </c>
     </row>
-    <row r="567" spans="1:9">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>56500</v>
       </c>
@@ -18574,7 +18596,7 @@
         <v>3.649134693877551E-2</v>
       </c>
     </row>
-    <row r="568" spans="1:9">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>56600</v>
       </c>
@@ -18606,7 +18628,7 @@
         <v>3.6045469387755096E-2</v>
       </c>
     </row>
-    <row r="569" spans="1:9">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>56700</v>
       </c>
@@ -18638,7 +18660,7 @@
         <v>3.560457142857143E-2</v>
       </c>
     </row>
-    <row r="570" spans="1:9">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>56800</v>
       </c>
@@ -18670,7 +18692,7 @@
         <v>3.5168571428571424E-2</v>
       </c>
     </row>
-    <row r="571" spans="1:9">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>56900</v>
       </c>
@@ -18702,7 +18724,7 @@
         <v>3.4737469387755099E-2</v>
       </c>
     </row>
-    <row r="572" spans="1:9">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>57000</v>
       </c>
@@ -18734,7 +18756,7 @@
         <v>3.4311102040816326E-2</v>
       </c>
     </row>
-    <row r="573" spans="1:9">
+    <row r="573" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>57100</v>
       </c>
@@ -18766,7 +18788,7 @@
         <v>3.3889551020408158E-2</v>
       </c>
     </row>
-    <row r="574" spans="1:9">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>57200</v>
       </c>
@@ -18798,7 +18820,7 @@
         <v>3.347273469387755E-2</v>
       </c>
     </row>
-    <row r="575" spans="1:9">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>57300</v>
       </c>
@@ -18830,7 +18852,7 @@
         <v>3.3060653061224486E-2</v>
       </c>
     </row>
-    <row r="576" spans="1:9">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>57400</v>
       </c>
@@ -18862,7 +18884,7 @@
         <v>3.2653142857142853E-2</v>
       </c>
     </row>
-    <row r="577" spans="1:9">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>57500</v>
       </c>
@@ -18894,7 +18916,7 @@
         <v>3.225020408163265E-2</v>
       </c>
     </row>
-    <row r="578" spans="1:9">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>57600</v>
       </c>
@@ -18926,7 +18948,7 @@
         <v>3.1851755102040816E-2</v>
       </c>
     </row>
-    <row r="579" spans="1:9">
+    <row r="579" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>57700</v>
       </c>
@@ -18958,7 +18980,7 @@
         <v>3.1457877551020405E-2</v>
       </c>
     </row>
-    <row r="580" spans="1:9">
+    <row r="580" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>57800</v>
       </c>
@@ -18990,7 +19012,7 @@
         <v>3.1068408163265303E-2</v>
       </c>
     </row>
-    <row r="581" spans="1:9">
+    <row r="581" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>57900</v>
       </c>
@@ -19022,7 +19044,7 @@
         <v>3.0683346938775509E-2</v>
       </c>
     </row>
-    <row r="582" spans="1:9">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>58000</v>
       </c>
@@ -19054,7 +19076,7 @@
         <v>3.0302612244897959E-2</v>
       </c>
     </row>
-    <row r="583" spans="1:9">
+    <row r="583" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>58100</v>
       </c>
@@ -19086,7 +19108,7 @@
         <v>2.992620408163265E-2</v>
       </c>
     </row>
-    <row r="584" spans="1:9">
+    <row r="584" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>58200</v>
       </c>
@@ -19118,7 +19140,7 @@
         <v>2.9554040816326531E-2</v>
       </c>
     </row>
-    <row r="585" spans="1:9">
+    <row r="585" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>58300</v>
       </c>
@@ -19150,7 +19172,7 @@
         <v>2.9186040816326531E-2</v>
       </c>
     </row>
-    <row r="586" spans="1:9">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>58400</v>
       </c>
@@ -19182,7 +19204,7 @@
         <v>2.8822285714285717E-2</v>
       </c>
     </row>
-    <row r="587" spans="1:9">
+    <row r="587" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>58500</v>
       </c>
@@ -19214,7 +19236,7 @@
         <v>2.8462693877551019E-2</v>
       </c>
     </row>
-    <row r="588" spans="1:9">
+    <row r="588" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>58600</v>
       </c>
@@ -19246,7 +19268,7 @@
         <v>2.8107183673469389E-2</v>
       </c>
     </row>
-    <row r="589" spans="1:9">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>58700</v>
       </c>
@@ -19278,7 +19300,7 @@
         <v>2.7755673469387756E-2</v>
       </c>
     </row>
-    <row r="590" spans="1:9">
+    <row r="590" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>58800</v>
       </c>
@@ -19310,7 +19332,7 @@
         <v>2.740816326530612E-2</v>
       </c>
     </row>
-    <row r="591" spans="1:9">
+    <row r="591" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>58900</v>
       </c>
@@ -19342,7 +19364,7 @@
         <v>2.7064653061224488E-2</v>
       </c>
     </row>
-    <row r="592" spans="1:9">
+    <row r="592" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>59000</v>
       </c>
@@ -19374,7 +19396,7 @@
         <v>2.6725061224489793E-2</v>
       </c>
     </row>
-    <row r="593" spans="1:9">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>59100</v>
       </c>
@@ -19406,7 +19428,7 @@
         <v>2.6389387755102044E-2</v>
       </c>
     </row>
-    <row r="594" spans="1:9">
+    <row r="594" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>59200</v>
       </c>
@@ -19438,7 +19460,7 @@
         <v>2.605755102040816E-2</v>
       </c>
     </row>
-    <row r="595" spans="1:9">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>59300</v>
       </c>
@@ -19470,7 +19492,7 @@
         <v>2.57294693877551E-2</v>
       </c>
     </row>
-    <row r="596" spans="1:9">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>59400</v>
       </c>
@@ -19502,7 +19524,7 @@
         <v>2.5405224489795916E-2</v>
       </c>
     </row>
-    <row r="597" spans="1:9">
+    <row r="597" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>59500</v>
       </c>
@@ -19534,7 +19556,7 @@
         <v>2.5084653061224489E-2</v>
       </c>
     </row>
-    <row r="598" spans="1:9">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>59600</v>
       </c>
@@ -19566,7 +19588,7 @@
         <v>2.4767755102040816E-2</v>
       </c>
     </row>
-    <row r="599" spans="1:9">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>59700</v>
       </c>
@@ -19598,7 +19620,7 @@
         <v>2.4454530612244899E-2</v>
       </c>
     </row>
-    <row r="600" spans="1:9">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>59800</v>
       </c>
@@ -19630,7 +19652,7 @@
         <v>2.4144897959183672E-2</v>
       </c>
     </row>
-    <row r="601" spans="1:9">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>59900</v>
       </c>
@@ -19662,7 +19684,7 @@
         <v>2.3838938775510202E-2</v>
       </c>
     </row>
-    <row r="602" spans="1:9">
+    <row r="602" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>60000</v>
       </c>
@@ -19694,7 +19716,7 @@
         <v>2.3536408163265306E-2</v>
       </c>
     </row>
-    <row r="603" spans="1:9">
+    <row r="603" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>60100</v>
       </c>
@@ -19726,7 +19748,7 @@
         <v>2.3237387755102042E-2</v>
       </c>
     </row>
-    <row r="604" spans="1:9">
+    <row r="604" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>60200</v>
       </c>
@@ -19758,7 +19780,7 @@
         <v>2.2941877551020406E-2</v>
       </c>
     </row>
-    <row r="605" spans="1:9">
+    <row r="605" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>60300</v>
       </c>
@@ -19790,7 +19812,7 @@
         <v>2.2649714285714283E-2</v>
       </c>
     </row>
-    <row r="606" spans="1:9">
+    <row r="606" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>60400</v>
       </c>
@@ -19822,7 +19844,7 @@
         <v>2.2361061224489796E-2</v>
       </c>
     </row>
-    <row r="607" spans="1:9">
+    <row r="607" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>60500</v>
       </c>
@@ -19854,7 +19876,7 @@
         <v>2.2075673469387755E-2</v>
       </c>
     </row>
-    <row r="608" spans="1:9">
+    <row r="608" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>60600</v>
       </c>
@@ -19886,7 +19908,7 @@
         <v>2.179363265306122E-2</v>
       </c>
     </row>
-    <row r="609" spans="1:9">
+    <row r="609" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A609">
         <v>60700</v>
       </c>
@@ -19918,7 +19940,7 @@
         <v>2.1514857142857138E-2</v>
       </c>
     </row>
-    <row r="610" spans="1:9">
+    <row r="610" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>60800</v>
       </c>
@@ -19950,7 +19972,7 @@
         <v>2.1239346938775511E-2</v>
       </c>
     </row>
-    <row r="611" spans="1:9">
+    <row r="611" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>60900</v>
       </c>
@@ -19982,7 +20004,7 @@
         <v>2.0967102040816324E-2</v>
       </c>
     </row>
-    <row r="612" spans="1:9">
+    <row r="612" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>61000</v>
       </c>
@@ -20014,7 +20036,7 @@
         <v>2.0697959183673467E-2</v>
       </c>
     </row>
-    <row r="613" spans="1:9">
+    <row r="613" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>61100</v>
       </c>
@@ -20046,7 +20068,7 @@
         <v>2.0431999999999995E-2</v>
       </c>
     </row>
-    <row r="614" spans="1:9">
+    <row r="614" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>61200</v>
       </c>
@@ -20078,7 +20100,7 @@
         <v>2.0169142857142854E-2</v>
       </c>
     </row>
-    <row r="615" spans="1:9">
+    <row r="615" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>61300</v>
       </c>
@@ -20110,7 +20132,7 @@
         <v>1.9909387755102041E-2</v>
       </c>
     </row>
-    <row r="616" spans="1:9">
+    <row r="616" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>61400</v>
       </c>
@@ -20142,7 +20164,7 @@
         <v>1.9652734693877547E-2</v>
       </c>
     </row>
-    <row r="617" spans="1:9">
+    <row r="617" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>61500</v>
       </c>
@@ -20174,7 +20196,7 @@
         <v>1.9399020408163263E-2</v>
       </c>
     </row>
-    <row r="618" spans="1:9">
+    <row r="618" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>61600</v>
       </c>
@@ -20206,7 +20228,7 @@
         <v>1.9148326530612245E-2</v>
       </c>
     </row>
-    <row r="619" spans="1:9">
+    <row r="619" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>61700</v>
       </c>
@@ -20238,7 +20260,7 @@
         <v>1.8900571428571426E-2</v>
       </c>
     </row>
-    <row r="620" spans="1:9">
+    <row r="620" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>61800</v>
       </c>
@@ -20270,7 +20292,7 @@
         <v>1.8655755102040816E-2</v>
       </c>
     </row>
-    <row r="621" spans="1:9">
+    <row r="621" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>61900</v>
       </c>
@@ -20302,7 +20324,7 @@
         <v>1.8413795918367348E-2</v>
       </c>
     </row>
-    <row r="622" spans="1:9">
+    <row r="622" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>62000</v>
       </c>
@@ -20334,7 +20356,7 @@
         <v>1.817469387755102E-2</v>
       </c>
     </row>
-    <row r="623" spans="1:9">
+    <row r="623" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>62100</v>
       </c>
@@ -20366,7 +20388,7 @@
         <v>1.7938448979591837E-2</v>
       </c>
     </row>
-    <row r="624" spans="1:9">
+    <row r="624" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>62200</v>
       </c>
@@ -20398,7 +20420,7 @@
         <v>1.7704979591836735E-2</v>
       </c>
     </row>
-    <row r="625" spans="1:9">
+    <row r="625" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>62300</v>
       </c>
@@ -20430,7 +20452,7 @@
         <v>1.7474367346938774E-2</v>
       </c>
     </row>
-    <row r="626" spans="1:9">
+    <row r="626" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>62400</v>
       </c>
@@ -20462,7 +20484,7 @@
         <v>1.7246367346938775E-2</v>
       </c>
     </row>
-    <row r="627" spans="1:9">
+    <row r="627" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>62500</v>
       </c>
@@ -20494,7 +20516,7 @@
         <v>1.7021142857142856E-2</v>
       </c>
     </row>
-    <row r="628" spans="1:9">
+    <row r="628" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>62600</v>
       </c>
@@ -20526,7 +20548,7 @@
         <v>1.6798612244897957E-2</v>
       </c>
     </row>
-    <row r="629" spans="1:9">
+    <row r="629" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>62700</v>
       </c>
@@ -20558,7 +20580,7 @@
         <v>1.6578775510204081E-2</v>
       </c>
     </row>
-    <row r="630" spans="1:9">
+    <row r="630" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>62800</v>
       </c>
@@ -20590,7 +20612,7 @@
         <v>1.6361469387755102E-2</v>
       </c>
     </row>
-    <row r="631" spans="1:9">
+    <row r="631" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>62900</v>
       </c>
@@ -20622,7 +20644,7 @@
         <v>1.6146775510204082E-2</v>
       </c>
     </row>
-    <row r="632" spans="1:9">
+    <row r="632" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>63000</v>
       </c>
@@ -20654,7 +20676,7 @@
         <v>1.5934693877551021E-2</v>
       </c>
     </row>
-    <row r="633" spans="1:9">
+    <row r="633" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>63100</v>
       </c>
@@ -20686,7 +20708,7 @@
         <v>1.5725142857142854E-2</v>
       </c>
     </row>
-    <row r="634" spans="1:9">
+    <row r="634" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>63200</v>
       </c>
@@ -20718,7 +20740,7 @@
         <v>1.551812244897959E-2</v>
       </c>
     </row>
-    <row r="635" spans="1:9">
+    <row r="635" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>63300</v>
       </c>
@@ -20750,7 +20772,7 @@
         <v>1.5313551020408161E-2</v>
       </c>
     </row>
-    <row r="636" spans="1:9">
+    <row r="636" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>63400</v>
       </c>
@@ -20782,7 +20804,7 @@
         <v>1.5111428571428569E-2</v>
       </c>
     </row>
-    <row r="637" spans="1:9">
+    <row r="637" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>63500</v>
       </c>
@@ -20814,7 +20836,7 @@
         <v>1.4911755102040814E-2</v>
       </c>
     </row>
-    <row r="638" spans="1:9">
+    <row r="638" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>63600</v>
       </c>
@@ -20846,7 +20868,7 @@
         <v>1.4714530612244897E-2</v>
       </c>
     </row>
-    <row r="639" spans="1:9">
+    <row r="639" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>63700</v>
       </c>
@@ -20878,7 +20900,7 @@
         <v>1.4519591836734694E-2</v>
       </c>
     </row>
-    <row r="640" spans="1:9">
+    <row r="640" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A640">
         <v>63800</v>
       </c>
@@ -20910,7 +20932,7 @@
         <v>1.4327102040816327E-2</v>
       </c>
     </row>
-    <row r="641" spans="1:9">
+    <row r="641" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>63900</v>
       </c>
@@ -20942,7 +20964,7 @@
         <v>1.4136897959183672E-2</v>
       </c>
     </row>
-    <row r="642" spans="1:9">
+    <row r="642" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>64000</v>
       </c>
@@ -20974,7 +20996,7 @@
         <v>1.3948979591836734E-2</v>
       </c>
     </row>
-    <row r="643" spans="1:9">
+    <row r="643" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>64100</v>
       </c>
@@ -21006,7 +21028,7 @@
         <v>1.3763346938775508E-2</v>
       </c>
     </row>
-    <row r="644" spans="1:9">
+    <row r="644" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>64200</v>
       </c>
@@ -21038,7 +21060,7 @@
         <v>1.358E-2</v>
       </c>
     </row>
-    <row r="645" spans="1:9">
+    <row r="645" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>64300</v>
       </c>
@@ -21070,7 +21092,7 @@
         <v>1.3398857142857143E-2</v>
       </c>
     </row>
-    <row r="646" spans="1:9">
+    <row r="646" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>64400</v>
       </c>
@@ -21102,7 +21124,7 @@
         <v>1.3219918367346936E-2</v>
       </c>
     </row>
-    <row r="647" spans="1:9">
+    <row r="647" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>64500</v>
       </c>
@@ -21134,7 +21156,7 @@
         <v>1.3043102040816325E-2</v>
       </c>
     </row>
-    <row r="648" spans="1:9">
+    <row r="648" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>64600</v>
       </c>
@@ -21166,7 +21188,7 @@
         <v>1.2868489795918366E-2</v>
       </c>
     </row>
-    <row r="649" spans="1:9">
+    <row r="649" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>64700</v>
       </c>
@@ -21198,7 +21220,7 @@
         <v>1.2696081632653062E-2</v>
       </c>
     </row>
-    <row r="650" spans="1:9">
+    <row r="650" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>64800</v>
       </c>
@@ -21230,7 +21252,7 @@
         <v>1.2525714285714284E-2</v>
       </c>
     </row>
-    <row r="651" spans="1:9">
+    <row r="651" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>64900</v>
       </c>
@@ -21262,7 +21284,7 @@
         <v>1.2357387755102041E-2</v>
       </c>
     </row>
-    <row r="652" spans="1:9">
+    <row r="652" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>65000</v>
       </c>
@@ -21294,7 +21316,7 @@
         <v>1.2191183673469387E-2</v>
       </c>
     </row>
-    <row r="653" spans="1:9">
+    <row r="653" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>65100</v>
       </c>
@@ -21326,7 +21348,7 @@
         <v>1.2027020408163265E-2</v>
       </c>
     </row>
-    <row r="654" spans="1:9">
+    <row r="654" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>65200</v>
       </c>
@@ -21358,7 +21380,7 @@
         <v>1.186481632653061E-2</v>
       </c>
     </row>
-    <row r="655" spans="1:9">
+    <row r="655" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>65300</v>
       </c>
@@ -21390,7 +21412,7 @@
         <v>1.170465306122449E-2</v>
       </c>
     </row>
-    <row r="656" spans="1:9">
+    <row r="656" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>65400</v>
       </c>
@@ -21422,7 +21444,7 @@
         <v>1.1546448979591837E-2</v>
       </c>
     </row>
-    <row r="657" spans="1:9">
+    <row r="657" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>65500</v>
       </c>
@@ -21454,7 +21476,7 @@
         <v>1.1390204081632651E-2</v>
       </c>
     </row>
-    <row r="658" spans="1:9">
+    <row r="658" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>65600</v>
       </c>
@@ -21486,7 +21508,7 @@
         <v>1.1235836734693876E-2</v>
       </c>
     </row>
-    <row r="659" spans="1:9">
+    <row r="659" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>65700</v>
       </c>
@@ -21518,7 +21540,7 @@
         <v>1.1083428571428569E-2</v>
       </c>
     </row>
-    <row r="660" spans="1:9">
+    <row r="660" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>65800</v>
       </c>
@@ -21550,7 +21572,7 @@
         <v>1.0932897959183674E-2</v>
       </c>
     </row>
-    <row r="661" spans="1:9">
+    <row r="661" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>65900</v>
       </c>
@@ -21582,7 +21604,7 @@
         <v>1.0784244897959181E-2</v>
       </c>
     </row>
-    <row r="662" spans="1:9">
+    <row r="662" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>66000</v>
       </c>
@@ -21614,7 +21636,7 @@
         <v>1.0637387755102042E-2</v>
       </c>
     </row>
-    <row r="663" spans="1:9">
+    <row r="663" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>66100</v>
       </c>
@@ -21646,7 +21668,7 @@
         <v>1.0492408163265304E-2</v>
       </c>
     </row>
-    <row r="664" spans="1:9">
+    <row r="664" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>66200</v>
       </c>
@@ -21678,7 +21700,7 @@
         <v>1.0349224489795918E-2</v>
       </c>
     </row>
-    <row r="665" spans="1:9">
+    <row r="665" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>66300</v>
       </c>
@@ -21710,7 +21732,7 @@
         <v>1.0207836734693877E-2</v>
       </c>
     </row>
-    <row r="666" spans="1:9">
+    <row r="666" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>66400</v>
       </c>
@@ -21742,7 +21764,7 @@
         <v>1.0068163265306121E-2</v>
       </c>
     </row>
-    <row r="667" spans="1:9">
+    <row r="667" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>66500</v>
       </c>
@@ -21774,7 +21796,7 @@
         <v>9.9302040816326535E-3</v>
       </c>
     </row>
-    <row r="668" spans="1:9">
+    <row r="668" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>66600</v>
       </c>
@@ -21806,7 +21828,7 @@
         <v>9.7940408163265293E-3</v>
       </c>
     </row>
-    <row r="669" spans="1:9">
+    <row r="669" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>66700</v>
       </c>
@@ -21838,7 +21860,7 @@
         <v>9.659591836734694E-3</v>
       </c>
     </row>
-    <row r="670" spans="1:9">
+    <row r="670" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>66800</v>
       </c>
@@ -21870,7 +21892,7 @@
         <v>9.5267755102040816E-3</v>
       </c>
     </row>
-    <row r="671" spans="1:9">
+    <row r="671" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>66900</v>
       </c>
@@ -21902,7 +21924,7 @@
         <v>9.3955918367346937E-3</v>
       </c>
     </row>
-    <row r="672" spans="1:9">
+    <row r="672" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>67000</v>
       </c>
@@ -21934,7 +21956,7 @@
         <v>9.2661224489795913E-3</v>
       </c>
     </row>
-    <row r="673" spans="1:9">
+    <row r="673" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>67100</v>
       </c>
@@ -21966,7 +21988,7 @@
         <v>9.1382857142857134E-3</v>
       </c>
     </row>
-    <row r="674" spans="1:9">
+    <row r="674" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>67200</v>
       </c>
@@ -21998,7 +22020,7 @@
         <v>9.0119999999999992E-3</v>
       </c>
     </row>
-    <row r="675" spans="1:9">
+    <row r="675" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>67300</v>
       </c>
@@ -22030,7 +22052,7 @@
         <v>8.8873469387755113E-3</v>
       </c>
     </row>
-    <row r="676" spans="1:9">
+    <row r="676" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>67400</v>
       </c>
@@ -22062,7 +22084,7 @@
         <v>8.7642448979591836E-3</v>
       </c>
     </row>
-    <row r="677" spans="1:9">
+    <row r="677" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A677">
         <v>67500</v>
       </c>
@@ -22094,7 +22116,7 @@
         <v>8.6426938775510196E-3</v>
       </c>
     </row>
-    <row r="678" spans="1:9">
+    <row r="678" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A678">
         <v>67600</v>
       </c>
@@ -22126,7 +22148,7 @@
         <v>8.5226938775510193E-3</v>
       </c>
     </row>
-    <row r="679" spans="1:9">
+    <row r="679" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A679">
         <v>67700</v>
       </c>
@@ -22158,7 +22180,7 @@
         <v>8.4042448979591827E-3</v>
       </c>
     </row>
-    <row r="680" spans="1:9">
+    <row r="680" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A680">
         <v>67800</v>
       </c>
@@ -22190,7 +22212,7 @@
         <v>8.2872653061224488E-3</v>
       </c>
     </row>
-    <row r="681" spans="1:9">
+    <row r="681" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A681">
         <v>67900</v>
       </c>
@@ -22222,7 +22244,7 @@
         <v>8.1717551020408161E-3</v>
       </c>
     </row>
-    <row r="682" spans="1:9">
+    <row r="682" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A682">
         <v>68000</v>
       </c>
@@ -22254,7 +22276,7 @@
         <v>8.0577061224489793E-3</v>
       </c>
     </row>
-    <row r="683" spans="1:9">
+    <row r="683" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A683">
         <v>68100</v>
       </c>
@@ -22286,7 +22308,7 @@
         <v>7.9451346938775504E-3</v>
       </c>
     </row>
-    <row r="684" spans="1:9">
+    <row r="684" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>68200</v>
       </c>
@@ -22318,7 +22340,7 @@
         <v>7.8339836734693871E-3</v>
       </c>
     </row>
-    <row r="685" spans="1:9">
+    <row r="685" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>68300</v>
       </c>
@@ -22350,7 +22372,7 @@
         <v>7.7242612244897962E-3</v>
       </c>
     </row>
-    <row r="686" spans="1:9">
+    <row r="686" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>68400</v>
       </c>
@@ -22382,7 +22404,7 @@
         <v>7.6159346938775505E-3</v>
       </c>
     </row>
-    <row r="687" spans="1:9">
+    <row r="687" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>68500</v>
       </c>
@@ -22414,7 +22436,7 @@
         <v>7.5089959183673458E-3</v>
       </c>
     </row>
-    <row r="688" spans="1:9">
+    <row r="688" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>68600</v>
       </c>
@@ -22446,7 +22468,7 @@
         <v>7.4034285714285712E-3</v>
       </c>
     </row>
-    <row r="689" spans="1:9">
+    <row r="689" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>68700</v>
       </c>
@@ -22478,7 +22500,7 @@
         <v>7.2992163265306106E-3</v>
       </c>
     </row>
-    <row r="690" spans="1:9">
+    <row r="690" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>68800</v>
       </c>
@@ -22510,7 +22532,7 @@
         <v>7.1963346938775504E-3</v>
       </c>
     </row>
-    <row r="691" spans="1:9">
+    <row r="691" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>68900</v>
       </c>
@@ -22542,7 +22564,7 @@
         <v>7.0947836734693874E-3</v>
       </c>
     </row>
-    <row r="692" spans="1:9">
+    <row r="692" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A692">
         <v>69000</v>
       </c>
@@ -22574,7 +22596,7 @@
         <v>6.9945306122448977E-3</v>
       </c>
     </row>
-    <row r="693" spans="1:9">
+    <row r="693" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>69100</v>
       </c>
@@ -22606,7 +22628,7 @@
         <v>6.8955755102040814E-3</v>
       </c>
     </row>
-    <row r="694" spans="1:9">
+    <row r="694" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>69200</v>
       </c>
@@ -22638,7 +22660,7 @@
         <v>6.7978938775510199E-3</v>
       </c>
     </row>
-    <row r="695" spans="1:9">
+    <row r="695" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>69300</v>
       </c>
@@ -22670,7 +22692,7 @@
         <v>6.7014693877551022E-3</v>
       </c>
     </row>
-    <row r="696" spans="1:9">
+    <row r="696" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>69400</v>
       </c>
@@ -22702,7 +22724,7 @@
         <v>6.6063020408163274E-3</v>
       </c>
     </row>
-    <row r="697" spans="1:9">
+    <row r="697" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>69500</v>
       </c>
@@ -22734,7 +22756,7 @@
         <v>6.5123591836734693E-3</v>
       </c>
     </row>
-    <row r="698" spans="1:9">
+    <row r="698" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A698">
         <v>69600</v>
       </c>
@@ -22766,7 +22788,7 @@
         <v>6.4196408163265288E-3</v>
       </c>
     </row>
-    <row r="699" spans="1:9">
+    <row r="699" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A699">
         <v>69700</v>
       </c>
@@ -22798,7 +22820,7 @@
         <v>6.3281224489795916E-3</v>
       </c>
     </row>
-    <row r="700" spans="1:9">
+    <row r="700" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A700">
         <v>69800</v>
       </c>
@@ -22830,7 +22852,7 @@
         <v>6.2377959183673466E-3</v>
       </c>
     </row>
-    <row r="701" spans="1:9">
+    <row r="701" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A701">
         <v>69900</v>
       </c>
@@ -22862,7 +22884,7 @@
         <v>6.1486448979591827E-3</v>
       </c>
     </row>
-    <row r="702" spans="1:9">
+    <row r="702" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A702">
         <v>70000</v>
       </c>
@@ -22894,7 +22916,7 @@
         <v>6.0606530612244891E-3</v>
       </c>
     </row>
-    <row r="703" spans="1:9">
+    <row r="703" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A703">
         <v>70100</v>
       </c>
@@ -22926,7 +22948,7 @@
         <v>5.9738122448979589E-3</v>
       </c>
     </row>
-    <row r="704" spans="1:9">
+    <row r="704" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A704">
         <v>70200</v>
       </c>
@@ -22958,7 +22980,7 @@
         <v>5.8881061224489786E-3</v>
       </c>
     </row>
-    <row r="705" spans="1:9">
+    <row r="705" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A705">
         <v>70300</v>
       </c>
@@ -22990,7 +23012,7 @@
         <v>5.8035183673469382E-3</v>
       </c>
     </row>
-    <row r="706" spans="1:9">
+    <row r="706" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A706">
         <v>70400</v>
       </c>
@@ -23022,7 +23044,7 @@
         <v>5.7200408163265307E-3</v>
       </c>
     </row>
-    <row r="707" spans="1:9">
+    <row r="707" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A707">
         <v>70500</v>
       </c>
@@ -23054,7 +23076,7 @@
         <v>5.6376571428571427E-3</v>
       </c>
     </row>
-    <row r="708" spans="1:9">
+    <row r="708" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A708">
         <v>70600</v>
       </c>
@@ -23086,7 +23108,7 @@
         <v>5.5563591836734691E-3</v>
       </c>
     </row>
-    <row r="709" spans="1:9">
+    <row r="709" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A709">
         <v>70700</v>
       </c>
@@ -23118,7 +23140,7 @@
         <v>5.4761224489795913E-3</v>
       </c>
     </row>
-    <row r="710" spans="1:9">
+    <row r="710" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A710">
         <v>70800</v>
       </c>
@@ -23150,7 +23172,7 @@
         <v>5.3969469387755093E-3</v>
       </c>
     </row>
-    <row r="711" spans="1:9">
+    <row r="711" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>70900</v>
       </c>
@@ -23182,7 +23204,7 @@
         <v>5.3188163265306121E-3</v>
       </c>
     </row>
-    <row r="712" spans="1:9">
+    <row r="712" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A712">
         <v>71000</v>
       </c>
@@ -23214,7 +23236,7 @@
         <v>5.2417142857142853E-3</v>
       </c>
     </row>
-    <row r="713" spans="1:9">
+    <row r="713" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A713">
         <v>71100</v>
       </c>
@@ -23246,7 +23268,7 @@
         <v>5.1637224489795922E-3</v>
       </c>
     </row>
-    <row r="714" spans="1:9">
+    <row r="714" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A714">
         <v>71200</v>
       </c>
@@ -23278,7 +23300,7 @@
         <v>5.0868244897959176E-3</v>
       </c>
     </row>
-    <row r="715" spans="1:9">
+    <row r="715" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A715">
         <v>71300</v>
       </c>
@@ -23310,7 +23332,7 @@
         <v>5.0109959183673464E-3</v>
       </c>
     </row>
-    <row r="716" spans="1:9">
+    <row r="716" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A716">
         <v>71400</v>
       </c>
@@ -23342,7 +23364,7 @@
         <v>4.9362285714285711E-3</v>
       </c>
     </row>
-    <row r="717" spans="1:9">
+    <row r="717" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A717">
         <v>71500</v>
       </c>
@@ -23374,7 +23396,7 @@
         <v>4.8625061224489789E-3</v>
       </c>
     </row>
-    <row r="718" spans="1:9">
+    <row r="718" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A718">
         <v>71600</v>
       </c>
@@ -23406,7 +23428,7 @@
         <v>4.7898204081632647E-3</v>
       </c>
     </row>
-    <row r="719" spans="1:9">
+    <row r="719" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A719">
         <v>71700</v>
       </c>
@@ -23438,7 +23460,7 @@
         <v>4.7181551020408167E-3</v>
       </c>
     </row>
-    <row r="720" spans="1:9">
+    <row r="720" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A720">
         <v>71800</v>
       </c>
@@ -23470,7 +23492,7 @@
         <v>4.6474938775510205E-3</v>
       </c>
     </row>
-    <row r="721" spans="1:9">
+    <row r="721" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A721">
         <v>71900</v>
       </c>
@@ -23502,7 +23524,7 @@
         <v>4.5778285714285711E-3</v>
       </c>
     </row>
-    <row r="722" spans="1:9">
+    <row r="722" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A722">
         <v>72000</v>
       </c>
@@ -23534,7 +23556,7 @@
         <v>4.5091428571428565E-3</v>
       </c>
     </row>
-    <row r="723" spans="1:9">
+    <row r="723" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A723">
         <v>72100</v>
       </c>
@@ -23566,7 +23588,7 @@
         <v>4.4414204081632651E-3</v>
       </c>
     </row>
-    <row r="724" spans="1:9">
+    <row r="724" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A724">
         <v>72200</v>
       </c>
@@ -23598,7 +23620,7 @@
         <v>4.3746530612244899E-3</v>
       </c>
     </row>
-    <row r="725" spans="1:9">
+    <row r="725" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A725">
         <v>72300</v>
       </c>
@@ -23630,7 +23652,7 @@
         <v>4.3088326530612243E-3</v>
       </c>
     </row>
-    <row r="726" spans="1:9">
+    <row r="726" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A726">
         <v>72400</v>
       </c>
@@ -23662,7 +23684,7 @@
         <v>4.2439428571428564E-3</v>
       </c>
     </row>
-    <row r="727" spans="1:9">
+    <row r="727" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A727">
         <v>72500</v>
       </c>
@@ -23694,7 +23716,7 @@
         <v>4.1799673469387752E-3</v>
       </c>
     </row>
-    <row r="728" spans="1:9">
+    <row r="728" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A728">
         <v>72600</v>
       </c>
@@ -23726,7 +23748,7 @@
         <v>4.116897959183673E-3</v>
       </c>
     </row>
-    <row r="729" spans="1:9">
+    <row r="729" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A729">
         <v>72700</v>
       </c>
@@ -23758,7 +23780,7 @@
         <v>4.0547183673469381E-3</v>
       </c>
     </row>
-    <row r="730" spans="1:9">
+    <row r="730" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A730">
         <v>72800</v>
       </c>
@@ -23790,7 +23812,7 @@
         <v>3.9934285714285705E-3</v>
       </c>
     </row>
-    <row r="731" spans="1:9">
+    <row r="731" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A731">
         <v>72900</v>
       </c>
@@ -23822,7 +23844,7 @@
         <v>3.9330040816326524E-3</v>
       </c>
     </row>
-    <row r="732" spans="1:9">
+    <row r="732" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A732">
         <v>73000</v>
       </c>
@@ -23854,7 +23876,7 @@
         <v>3.8734367346938774E-3</v>
       </c>
     </row>
-    <row r="733" spans="1:9">
+    <row r="733" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A733">
         <v>73100</v>
       </c>
@@ -23886,7 +23908,7 @@
         <v>3.8147102040816329E-3</v>
       </c>
     </row>
-    <row r="734" spans="1:9">
+    <row r="734" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A734">
         <v>73200</v>
       </c>
@@ -23918,7 +23940,7 @@
         <v>3.7568326530612239E-3</v>
       </c>
     </row>
-    <row r="735" spans="1:9">
+    <row r="735" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A735">
         <v>73300</v>
       </c>
@@ -23950,7 +23972,7 @@
         <v>3.699771428571428E-3</v>
       </c>
     </row>
-    <row r="736" spans="1:9">
+    <row r="736" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A736">
         <v>73400</v>
       </c>
@@ -23982,7 +24004,7 @@
         <v>3.6435183673469386E-3</v>
       </c>
     </row>
-    <row r="737" spans="1:9">
+    <row r="737" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A737">
         <v>73500</v>
       </c>
@@ -24014,7 +24036,7 @@
         <v>3.5880816326530614E-3</v>
       </c>
     </row>
-    <row r="738" spans="1:9">
+    <row r="738" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A738">
         <v>73600</v>
       </c>
@@ -24046,7 +24068,7 @@
         <v>3.533428571428571E-3</v>
       </c>
     </row>
-    <row r="739" spans="1:9">
+    <row r="739" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A739">
         <v>73700</v>
       </c>
@@ -24078,7 +24100,7 @@
         <v>3.4795591836734694E-3</v>
       </c>
     </row>
-    <row r="740" spans="1:9">
+    <row r="740" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A740">
         <v>73800</v>
       </c>
@@ -24110,7 +24132,7 @@
         <v>3.4264571428571427E-3</v>
       </c>
     </row>
-    <row r="741" spans="1:9">
+    <row r="741" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A741">
         <v>73900</v>
       </c>
@@ -24142,7 +24164,7 @@
         <v>3.3741142857142852E-3</v>
       </c>
     </row>
-    <row r="742" spans="1:9">
+    <row r="742" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A742">
         <v>74000</v>
       </c>
@@ -24174,7 +24196,7 @@
         <v>3.3225306122448978E-3</v>
       </c>
     </row>
-    <row r="743" spans="1:9">
+    <row r="743" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A743">
         <v>74100</v>
       </c>
@@ -24206,7 +24228,7 @@
         <v>3.2716816326530608E-3</v>
       </c>
     </row>
-    <row r="744" spans="1:9">
+    <row r="744" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A744">
         <v>74200</v>
       </c>
@@ -24238,7 +24260,7 @@
         <v>3.2215673469387757E-3</v>
       </c>
     </row>
-    <row r="745" spans="1:9">
+    <row r="745" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A745">
         <v>74300</v>
       </c>
@@ -24270,7 +24292,7 @@
         <v>3.1721632653061221E-3</v>
       </c>
     </row>
-    <row r="746" spans="1:9">
+    <row r="746" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A746">
         <v>74400</v>
       </c>
@@ -24302,7 +24324,7 @@
         <v>3.1234775510204081E-3</v>
       </c>
     </row>
-    <row r="747" spans="1:9">
+    <row r="747" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A747">
         <v>74500</v>
       </c>
@@ -24334,7 +24356,7 @@
         <v>3.07549387755102E-3</v>
       </c>
     </row>
-    <row r="748" spans="1:9">
+    <row r="748" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A748">
         <v>74600</v>
       </c>
@@ -24366,7 +24388,7 @@
         <v>3.0282040816326529E-3</v>
       </c>
     </row>
-    <row r="749" spans="1:9">
+    <row r="749" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A749">
         <v>74700</v>
       </c>
@@ -24398,7 +24420,7 @@
         <v>2.9815918367346937E-3</v>
       </c>
     </row>
-    <row r="750" spans="1:9">
+    <row r="750" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A750">
         <v>74800</v>
       </c>
@@ -24430,7 +24452,7 @@
         <v>2.9356571428571423E-3</v>
       </c>
     </row>
-    <row r="751" spans="1:9">
+    <row r="751" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A751">
         <v>74900</v>
       </c>
@@ -24462,7 +24484,7 @@
         <v>2.8903836734693877E-3</v>
       </c>
     </row>
-    <row r="752" spans="1:9">
+    <row r="752" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A752">
         <v>75000</v>
       </c>
@@ -24494,7 +24516,7 @@
         <v>2.8457714285714283E-3</v>
       </c>
     </row>
-    <row r="753" spans="1:9">
+    <row r="753" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A753">
         <v>75100</v>
       </c>
@@ -24526,7 +24548,7 @@
         <v>2.8018040816326531E-3</v>
       </c>
     </row>
-    <row r="754" spans="1:9">
+    <row r="754" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A754">
         <v>75200</v>
       </c>
@@ -24558,7 +24580,7 @@
         <v>2.7584653061224489E-3</v>
       </c>
     </row>
-    <row r="755" spans="1:9">
+    <row r="755" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A755">
         <v>75300</v>
       </c>
@@ -24590,7 +24612,7 @@
         <v>2.7157632653061225E-3</v>
       </c>
     </row>
-    <row r="756" spans="1:9">
+    <row r="756" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A756">
         <v>75400</v>
       </c>
@@ -24622,7 +24644,7 @@
         <v>2.6736816326530612E-3</v>
       </c>
     </row>
-    <row r="757" spans="1:9">
+    <row r="757" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A757">
         <v>75500</v>
       </c>
@@ -24654,7 +24676,7 @@
         <v>2.6322122448979588E-3</v>
       </c>
     </row>
-    <row r="758" spans="1:9">
+    <row r="758" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A758">
         <v>75600</v>
       </c>
@@ -24686,7 +24708,7 @@
         <v>2.59134693877551E-3</v>
       </c>
     </row>
-    <row r="759" spans="1:9">
+    <row r="759" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A759">
         <v>75700</v>
       </c>
@@ -24718,7 +24740,7 @@
         <v>2.5510775510204078E-3</v>
       </c>
     </row>
-    <row r="760" spans="1:9">
+    <row r="760" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A760">
         <v>75800</v>
       </c>
@@ -24750,7 +24772,7 @@
         <v>2.5113877551020403E-3</v>
       </c>
     </row>
-    <row r="761" spans="1:9">
+    <row r="761" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A761">
         <v>75900</v>
       </c>
@@ -24782,7 +24804,7 @@
         <v>2.4722857142857142E-3</v>
       </c>
     </row>
-    <row r="762" spans="1:9">
+    <row r="762" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A762">
         <v>76000</v>
       </c>
@@ -24814,7 +24836,7 @@
         <v>2.433755102040816E-3</v>
       </c>
     </row>
-    <row r="763" spans="1:9">
+    <row r="763" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A763">
         <v>76100</v>
       </c>
@@ -24846,7 +24868,7 @@
         <v>2.3957877551020403E-3</v>
       </c>
     </row>
-    <row r="764" spans="1:9">
+    <row r="764" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A764">
         <v>76200</v>
       </c>
@@ -24878,7 +24900,7 @@
         <v>2.3583755102040815E-3</v>
       </c>
     </row>
-    <row r="765" spans="1:9">
+    <row r="765" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A765">
         <v>76300</v>
       </c>
@@ -24910,7 +24932,7 @@
         <v>2.3215102040816324E-3</v>
       </c>
     </row>
-    <row r="766" spans="1:9">
+    <row r="766" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A766">
         <v>76400</v>
       </c>
@@ -24942,7 +24964,7 @@
         <v>2.2851836734693876E-3</v>
       </c>
     </row>
-    <row r="767" spans="1:9">
+    <row r="767" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A767">
         <v>76500</v>
       </c>
@@ -24974,7 +24996,7 @@
         <v>2.2493959183673465E-3</v>
       </c>
     </row>
-    <row r="768" spans="1:9">
+    <row r="768" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A768">
         <v>76600</v>
       </c>
@@ -25006,7 +25028,7 @@
         <v>2.2141306122448979E-3</v>
       </c>
     </row>
-    <row r="769" spans="1:9">
+    <row r="769" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A769">
         <v>76700</v>
       </c>
@@ -25038,7 +25060,7 @@
         <v>2.1793877551020404E-3</v>
       </c>
     </row>
-    <row r="770" spans="1:9">
+    <row r="770" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A770">
         <v>76800</v>
       </c>
@@ -25070,7 +25092,7 @@
         <v>2.1451510204081627E-3</v>
       </c>
     </row>
-    <row r="771" spans="1:9">
+    <row r="771" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A771">
         <v>76900</v>
       </c>
@@ -25102,7 +25124,7 @@
         <v>2.1114285714285714E-3</v>
       </c>
     </row>
-    <row r="772" spans="1:9">
+    <row r="772" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A772">
         <v>77000</v>
       </c>
@@ -25134,7 +25156,7 @@
         <v>2.0781959183673467E-3</v>
       </c>
     </row>
-    <row r="773" spans="1:9">
+    <row r="773" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A773">
         <v>77100</v>
       </c>
@@ -25166,7 +25188,7 @@
         <v>2.0454530612244899E-3</v>
       </c>
     </row>
-    <row r="774" spans="1:9">
+    <row r="774" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A774">
         <v>77200</v>
       </c>
@@ -25198,7 +25220,7 @@
         <v>2.0132000000000001E-3</v>
       </c>
     </row>
-    <row r="775" spans="1:9">
+    <row r="775" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A775">
         <v>77300</v>
       </c>
@@ -25230,7 +25252,7 @@
         <v>1.9814204081632651E-3</v>
       </c>
     </row>
-    <row r="776" spans="1:9">
+    <row r="776" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A776">
         <v>77400</v>
       </c>
@@ -25262,7 +25284,7 @@
         <v>1.9501142857142855E-3</v>
       </c>
     </row>
-    <row r="777" spans="1:9">
+    <row r="777" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A777">
         <v>77500</v>
       </c>
@@ -25294,7 +25316,7 @@
         <v>1.9192734693877548E-3</v>
       </c>
     </row>
-    <row r="778" spans="1:9">
+    <row r="778" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A778">
         <v>77600</v>
       </c>
@@ -25326,7 +25348,7 @@
         <v>1.888889795918367E-3</v>
       </c>
     </row>
-    <row r="779" spans="1:9">
+    <row r="779" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A779">
         <v>77700</v>
       </c>
@@ -25358,7 +25380,7 @@
         <v>1.8589551020408159E-3</v>
       </c>
     </row>
-    <row r="780" spans="1:9">
+    <row r="780" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A780">
         <v>77800</v>
       </c>
@@ -25390,7 +25412,7 @@
         <v>1.8294693877551019E-3</v>
       </c>
     </row>
-    <row r="781" spans="1:9">
+    <row r="781" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A781">
         <v>77900</v>
       </c>
@@ -25422,7 +25444,7 @@
         <v>1.8004163265306122E-3</v>
       </c>
     </row>
-    <row r="782" spans="1:9">
+    <row r="782" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A782">
         <v>78000</v>
       </c>
@@ -25454,7 +25476,7 @@
         <v>1.7718040816326528E-3</v>
       </c>
     </row>
-    <row r="783" spans="1:9">
+    <row r="783" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A783">
         <v>78100</v>
       </c>
@@ -25486,7 +25508,7 @@
         <v>1.7436163265306121E-3</v>
       </c>
     </row>
-    <row r="784" spans="1:9">
+    <row r="784" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A784">
         <v>78200</v>
       </c>
@@ -25518,7 +25540,7 @@
         <v>1.7158448979591834E-3</v>
       </c>
     </row>
-    <row r="785" spans="1:9">
+    <row r="785" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A785">
         <v>78300</v>
       </c>
@@ -25550,7 +25572,7 @@
         <v>1.6884979591836734E-3</v>
       </c>
     </row>
-    <row r="786" spans="1:9">
+    <row r="786" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A786">
         <v>78400</v>
       </c>
@@ -25582,7 +25604,7 @@
         <v>1.6615510204081628E-3</v>
       </c>
     </row>
-    <row r="787" spans="1:9">
+    <row r="787" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A787">
         <v>78500</v>
       </c>
@@ -25614,7 +25636,7 @@
         <v>1.635012244897959E-3</v>
       </c>
     </row>
-    <row r="788" spans="1:9">
+    <row r="788" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A788">
         <v>78600</v>
       </c>
@@ -25646,7 +25668,7 @@
         <v>1.6088734693877548E-3</v>
       </c>
     </row>
-    <row r="789" spans="1:9">
+    <row r="789" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A789">
         <v>78700</v>
       </c>
@@ -25678,7 +25700,7 @@
         <v>1.5831183673469386E-3</v>
       </c>
     </row>
-    <row r="790" spans="1:9">
+    <row r="790" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A790">
         <v>78800</v>
       </c>
@@ -25710,7 +25732,7 @@
         <v>1.5577632653061223E-3</v>
       </c>
     </row>
-    <row r="791" spans="1:9">
+    <row r="791" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A791">
         <v>78900</v>
       </c>
@@ -25742,7 +25764,7 @@
         <v>1.5327755102040816E-3</v>
       </c>
     </row>
-    <row r="792" spans="1:9">
+    <row r="792" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A792">
         <v>79000</v>
       </c>
@@ -25774,7 +25796,7 @@
         <v>1.5081714285714283E-3</v>
       </c>
     </row>
-    <row r="793" spans="1:9">
+    <row r="793" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A793">
         <v>79100</v>
       </c>
@@ -25806,7 +25828,7 @@
         <v>1.4839428571428569E-3</v>
       </c>
     </row>
-    <row r="794" spans="1:9">
+    <row r="794" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A794">
         <v>79200</v>
       </c>
@@ -25838,7 +25860,7 @@
         <v>1.4600734693877551E-3</v>
       </c>
     </row>
-    <row r="795" spans="1:9">
+    <row r="795" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A795">
         <v>79300</v>
       </c>
@@ -25870,7 +25892,7 @@
         <v>1.4365632653061222E-3</v>
       </c>
     </row>
-    <row r="796" spans="1:9">
+    <row r="796" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A796">
         <v>79400</v>
       </c>
@@ -25902,7 +25924,7 @@
         <v>1.4134122448979591E-3</v>
       </c>
     </row>
-    <row r="797" spans="1:9">
+    <row r="797" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A797">
         <v>79500</v>
       </c>
@@ -25934,7 +25956,7 @@
         <v>1.3906040816326528E-3</v>
       </c>
     </row>
-    <row r="798" spans="1:9">
+    <row r="798" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A798">
         <v>79600</v>
       </c>
@@ -25966,7 +25988,7 @@
         <v>1.36814693877551E-3</v>
       </c>
     </row>
-    <row r="799" spans="1:9">
+    <row r="799" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A799">
         <v>79700</v>
       </c>
@@ -25998,7 +26020,7 @@
         <v>1.3460326530612245E-3</v>
       </c>
     </row>
-    <row r="800" spans="1:9">
+    <row r="800" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A800">
         <v>79800</v>
       </c>
@@ -26030,7 +26052,7 @@
         <v>1.3242530612244895E-3</v>
       </c>
     </row>
-    <row r="801" spans="1:9">
+    <row r="801" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A801">
         <v>79900</v>
       </c>
@@ -26062,7 +26084,7 @@
         <v>1.3028E-3</v>
       </c>
     </row>
-    <row r="802" spans="1:9">
+    <row r="802" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A802">
         <v>80000</v>
       </c>
@@ -26094,7 +26116,7 @@
         <v>1.2816734693877551E-3</v>
       </c>
     </row>
-    <row r="803" spans="1:9">
+    <row r="803" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A803">
         <v>80100</v>
       </c>
@@ -26126,7 +26148,7 @@
         <v>1.260873469387755E-3</v>
       </c>
     </row>
-    <row r="804" spans="1:9">
+    <row r="804" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A804">
         <v>80200</v>
       </c>
@@ -26158,7 +26180,7 @@
         <v>1.2403918367346939E-3</v>
       </c>
     </row>
-    <row r="805" spans="1:9">
+    <row r="805" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A805">
         <v>80300</v>
       </c>
@@ -26190,7 +26212,7 @@
         <v>1.2202122448979591E-3</v>
       </c>
     </row>
-    <row r="806" spans="1:9">
+    <row r="806" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A806">
         <v>80400</v>
       </c>
@@ -26222,7 +26244,7 @@
         <v>1.2003510204081631E-3</v>
       </c>
     </row>
-    <row r="807" spans="1:9">
+    <row r="807" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A807">
         <v>80500</v>
       </c>
@@ -26254,7 +26276,7 @@
         <v>1.1807918367346939E-3</v>
       </c>
     </row>
-    <row r="808" spans="1:9">
+    <row r="808" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A808">
         <v>80600</v>
       </c>
@@ -26286,7 +26308,7 @@
         <v>1.1615265306122449E-3</v>
       </c>
     </row>
-    <row r="809" spans="1:9">
+    <row r="809" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A809">
         <v>80700</v>
       </c>
@@ -26318,7 +26340,7 @@
         <v>1.1425632653061224E-3</v>
       </c>
     </row>
-    <row r="810" spans="1:9">
+    <row r="810" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A810">
         <v>80800</v>
       </c>
@@ -26350,7 +26372,7 @@
         <v>1.1238857142857142E-3</v>
       </c>
     </row>
-    <row r="811" spans="1:9">
+    <row r="811" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A811">
         <v>80900</v>
       </c>
@@ -26382,7 +26404,7 @@
         <v>1.1054938775510205E-3</v>
       </c>
     </row>
-    <row r="812" spans="1:9">
+    <row r="812" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A812">
         <v>81000</v>
       </c>
@@ -26414,7 +26436,7 @@
         <v>1.0873877551020408E-3</v>
       </c>
     </row>
-    <row r="813" spans="1:9">
+    <row r="813" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A813">
         <v>81100</v>
       </c>
@@ -26446,7 +26468,7 @@
         <v>1.0695591836734691E-3</v>
       </c>
     </row>
-    <row r="814" spans="1:9">
+    <row r="814" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A814">
         <v>81200</v>
       </c>
@@ -26478,7 +26500,7 @@
         <v>1.052E-3</v>
       </c>
     </row>
-    <row r="815" spans="1:9">
+    <row r="815" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A815">
         <v>81300</v>
       </c>
@@ -26510,7 +26532,7 @@
         <v>1.0347183673469387E-3</v>
       </c>
     </row>
-    <row r="816" spans="1:9">
+    <row r="816" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A816">
         <v>81400</v>
       </c>
@@ -26542,7 +26564,7 @@
         <v>1.0176979591836736E-3</v>
       </c>
     </row>
-    <row r="817" spans="1:9">
+    <row r="817" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A817">
         <v>81500</v>
       </c>
@@ -26574,7 +26596,7 @@
         <v>1.0009469387755102E-3</v>
       </c>
     </row>
-    <row r="818" spans="1:9">
+    <row r="818" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A818">
         <v>81600</v>
       </c>
@@ -26606,7 +26628,7 @@
         <v>9.8444897959183665E-4</v>
       </c>
     </row>
-    <row r="819" spans="1:9">
+    <row r="819" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A819">
         <v>81700</v>
       </c>
@@ -26638,7 +26660,7 @@
         <v>9.6821224489795899E-4</v>
       </c>
     </row>
-    <row r="820" spans="1:9">
+    <row r="820" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A820">
         <v>81800</v>
       </c>
@@ -26670,7 +26692,7 @@
         <v>9.5222040816326527E-4</v>
       </c>
     </row>
-    <row r="821" spans="1:9">
+    <row r="821" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A821">
         <v>81900</v>
       </c>
@@ -26702,7 +26724,7 @@
         <v>9.3648163265306109E-4</v>
       </c>
     </row>
-    <row r="822" spans="1:9">
+    <row r="822" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A822">
         <v>82000</v>
       </c>
@@ -26734,7 +26756,7 @@
         <v>9.2097959183673451E-4</v>
       </c>
     </row>
-    <row r="823" spans="1:9">
+    <row r="823" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A823">
         <v>82100</v>
       </c>
@@ -26766,7 +26788,7 @@
         <v>9.0573061224489789E-4</v>
       </c>
     </row>
-    <row r="824" spans="1:9">
+    <row r="824" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A824">
         <v>82200</v>
       </c>
@@ -26798,7 +26820,7 @@
         <v>8.9071020408163263E-4</v>
       </c>
     </row>
-    <row r="825" spans="1:9">
+    <row r="825" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A825">
         <v>82300</v>
       </c>
@@ -26830,7 +26852,7 @@
         <v>8.7592653061224486E-4</v>
       </c>
     </row>
-    <row r="826" spans="1:9">
+    <row r="826" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A826">
         <v>82400</v>
       </c>
@@ -26862,7 +26884,7 @@
         <v>8.6137142857142844E-4</v>
       </c>
     </row>
-    <row r="827" spans="1:9">
+    <row r="827" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A827">
         <v>82500</v>
       </c>
@@ -26894,7 +26916,7 @@
         <v>8.4703673469387758E-4</v>
       </c>
     </row>
-    <row r="828" spans="1:9">
+    <row r="828" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A828">
         <v>82600</v>
       </c>
@@ -26926,7 +26948,7 @@
         <v>8.3293877551020399E-4</v>
       </c>
     </row>
-    <row r="829" spans="1:9">
+    <row r="829" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A829">
         <v>82700</v>
       </c>
@@ -26958,7 +26980,7 @@
         <v>8.190530612244897E-4</v>
       </c>
     </row>
-    <row r="830" spans="1:9">
+    <row r="830" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A830">
         <v>82800</v>
       </c>
@@ -26990,7 +27012,7 @@
         <v>8.0538693877551008E-4</v>
       </c>
     </row>
-    <row r="831" spans="1:9">
+    <row r="831" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A831">
         <v>82900</v>
       </c>
@@ -27022,7 +27044,7 @@
         <v>7.919346938775509E-4</v>
       </c>
     </row>
-    <row r="832" spans="1:9">
+    <row r="832" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A832">
         <v>83000</v>
       </c>
@@ -27054,7 +27076,7 @@
         <v>7.7869306122448979E-4</v>
       </c>
     </row>
-    <row r="833" spans="1:9">
+    <row r="833" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A833">
         <v>83100</v>
       </c>
@@ -27086,7 +27108,7 @@
         <v>7.656595918367347E-4</v>
       </c>
     </row>
-    <row r="834" spans="1:9">
+    <row r="834" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A834">
         <v>83200</v>
       </c>
@@ -27118,7 +27140,7 @@
         <v>7.5283102040816314E-4</v>
       </c>
     </row>
-    <row r="835" spans="1:9">
+    <row r="835" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A835">
         <v>83300</v>
       </c>
@@ -27150,7 +27172,7 @@
         <v>7.4020489795918363E-4</v>
       </c>
     </row>
-    <row r="836" spans="1:9">
+    <row r="836" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A836">
         <v>83400</v>
       </c>
@@ -27182,7 +27204,7 @@
         <v>7.2777632653061219E-4</v>
       </c>
     </row>
-    <row r="837" spans="1:9">
+    <row r="837" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A837">
         <v>83500</v>
       </c>
@@ -27214,7 +27236,7 @@
         <v>7.1554448979591837E-4</v>
       </c>
     </row>
-    <row r="838" spans="1:9">
+    <row r="838" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A838">
         <v>83600</v>
       </c>
@@ -27246,7 +27268,7 @@
         <v>7.03505306122449E-4</v>
       </c>
     </row>
-    <row r="839" spans="1:9">
+    <row r="839" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A839">
         <v>83700</v>
       </c>
@@ -27278,7 +27300,7 @@
         <v>6.9165632653061225E-4</v>
       </c>
     </row>
-    <row r="840" spans="1:9">
+    <row r="840" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A840">
         <v>83800</v>
       </c>
@@ -27310,7 +27332,7 @@
         <v>6.799951020408163E-4</v>
       </c>
     </row>
-    <row r="841" spans="1:9">
+    <row r="841" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A841">
         <v>83900</v>
       </c>
@@ -27342,7 +27364,7 @@
         <v>6.6851836734693867E-4</v>
       </c>
     </row>
-    <row r="842" spans="1:9">
+    <row r="842" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A842">
         <v>84000</v>
       </c>
@@ -27374,7 +27396,7 @@
         <v>6.5722285714285707E-4</v>
       </c>
     </row>
-    <row r="843" spans="1:9">
+    <row r="843" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A843">
         <v>84100</v>
       </c>
@@ -27406,7 +27428,7 @@
         <v>6.4610693877551015E-4</v>
       </c>
     </row>
-    <row r="844" spans="1:9">
+    <row r="844" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A844">
         <v>84200</v>
       </c>
@@ -27438,7 +27460,7 @@
         <v>6.3516734693877552E-4</v>
       </c>
     </row>
-    <row r="845" spans="1:9">
+    <row r="845" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A845">
         <v>84300</v>
       </c>
@@ -27470,7 +27492,7 @@
         <v>6.2440163265306114E-4</v>
       </c>
     </row>
-    <row r="846" spans="1:9">
+    <row r="846" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A846">
         <v>84400</v>
       </c>
@@ -27502,7 +27524,7 @@
         <v>6.1380734693877552E-4</v>
       </c>
     </row>
-    <row r="847" spans="1:9">
+    <row r="847" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A847">
         <v>84500</v>
       </c>
@@ -27534,7 +27556,7 @@
         <v>6.0338204081632652E-4</v>
       </c>
     </row>
-    <row r="848" spans="1:9">
+    <row r="848" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A848">
         <v>84600</v>
       </c>
@@ -27566,7 +27588,7 @@
         <v>5.9312326530612243E-4</v>
       </c>
     </row>
-    <row r="849" spans="1:9">
+    <row r="849" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A849">
         <v>84700</v>
       </c>
@@ -27598,7 +27620,7 @@
         <v>5.8302775510204075E-4</v>
       </c>
     </row>
-    <row r="850" spans="1:9">
+    <row r="850" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A850">
         <v>84800</v>
       </c>
@@ -27630,7 +27652,7 @@
         <v>5.7309306122448978E-4</v>
       </c>
     </row>
-    <row r="851" spans="1:9">
+    <row r="851" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A851">
         <v>84900</v>
       </c>
@@ -27662,7 +27684,7 @@
         <v>5.6303020408163262E-4</v>
       </c>
     </row>
-    <row r="852" spans="1:9">
+    <row r="852" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A852">
         <v>85000</v>
       </c>
@@ -27694,7 +27716,7 @@
         <v>5.5283428571428566E-4</v>
       </c>
     </row>
-    <row r="853" spans="1:9">
+    <row r="853" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A853">
         <v>85100</v>
       </c>
@@ -27726,7 +27748,7 @@
         <v>5.4282367346938768E-4</v>
       </c>
     </row>
-    <row r="854" spans="1:9">
+    <row r="854" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A854">
         <v>85200</v>
       </c>
@@ -27758,7 +27780,7 @@
         <v>5.3299346938775506E-4</v>
       </c>
     </row>
-    <row r="855" spans="1:9">
+    <row r="855" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A855">
         <v>85300</v>
       </c>
@@ -27790,7 +27812,7 @@
         <v>5.2334204081632644E-4</v>
       </c>
     </row>
-    <row r="856" spans="1:9">
+    <row r="856" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A856">
         <v>85400</v>
       </c>
@@ -27822,7 +27844,7 @@
         <v>5.1386530612244896E-4</v>
       </c>
     </row>
-    <row r="857" spans="1:9">
+    <row r="857" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A857">
         <v>85500</v>
       </c>
@@ -27854,7 +27876,7 @@
         <v>5.0455999999999993E-4</v>
       </c>
     </row>
-    <row r="858" spans="1:9">
+    <row r="858" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A858">
         <v>85600</v>
       </c>
@@ -27886,7 +27908,7 @@
         <v>4.9542285714285715E-4</v>
       </c>
     </row>
-    <row r="859" spans="1:9">
+    <row r="859" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A859">
         <v>85700</v>
       </c>
@@ -27918,7 +27940,7 @@
         <v>4.8645224489795918E-4</v>
       </c>
     </row>
-    <row r="860" spans="1:9">
+    <row r="860" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A860">
         <v>85800</v>
       </c>
@@ -27950,7 +27972,7 @@
         <v>4.7764326530612248E-4</v>
       </c>
     </row>
-    <row r="861" spans="1:9">
+    <row r="861" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A861">
         <v>85900</v>
       </c>
@@ -27982,7 +28004,7 @@
         <v>4.6899346938775508E-4</v>
       </c>
     </row>
-    <row r="862" spans="1:9">
+    <row r="862" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A862">
         <v>86000</v>
       </c>
@@ -28014,7 +28036,7 @@
         <v>4.6050122448979588E-4</v>
       </c>
     </row>
-    <row r="863" spans="1:9">
+    <row r="863" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A863">
         <v>100000</v>
       </c>
